--- a/Technology/Hardware/Micron Technology.xlsx
+++ b/Technology/Hardware/Micron Technology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A41EAD-F556-DC4B-BDE2-9B3C8F21EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C91FF4-C339-7C44-AD4B-3DFC846786AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2521,13 +2521,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>75.41</v>
+    <v>74.769900000000007</v>
     <v>48.43</v>
-    <v>1.3896999999999999</v>
-    <v>0.6</v>
-    <v>8.8800000000000007E-3</v>
-    <v>0.03</v>
-    <v>4.4010000000000002E-4</v>
+    <v>1.3644000000000001</v>
+    <v>0.45</v>
+    <v>6.8389999999999996E-3</v>
     <v>USD</v>
     <v>Micron Technology, Inc. is a provider of memory and storage solutions. The Company's product portfolio includes dynamic random-access memory (DRAM), negative-AND (NAND), three-dimensional (3D) XPoint memory, and NOR, solid-state drives, graphics and high bandwidth memory (HBM), managed NAND and multichip packages. Its brands include Micron and Crucial. The Company's segments include Compute and Networking Business Unit (CNBU) includes memory products sold into client, cloud server, enterprise, graphics, and networking markets; Mobile Business Unit (MBU) includes memory and storage products sold into smartphone and other mobile-device markets; Storage Business Unit (SBU) includes solid state drives (SSDs) and component-level solutions sold into enterprise and cloud, client, and consumer storage markets and other discrete storage products; Embedded Business Unit (EBU) includes memory and storage products sold into automotive, industrial, and consumer markets.</v>
     <v>48000</v>
@@ -2535,25 +2533,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>PO BOX 6, 8000 S FEDERAL WAY, BOISE, ID, 83716-9632 US</v>
-    <v>68.39</v>
+    <v>66.66</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45065.96099773125</v>
+    <v>45099.999881029689</v>
     <v>0</v>
-    <v>66.430000000000007</v>
-    <v>73948230000</v>
+    <v>65.510000000000005</v>
+    <v>72503602500</v>
     <v>MICRON TECHNOLOGY, INC.</v>
     <v>MICRON TECHNOLOGY, INC.</v>
-    <v>67.569999999999993</v>
-    <v>48.5319</v>
-    <v>67.569999999999993</v>
-    <v>68.17</v>
-    <v>68.2</v>
+    <v>65.53</v>
+    <v>47.583799999999997</v>
+    <v>65.8</v>
+    <v>66.25</v>
     <v>1094394000</v>
     <v>MU</v>
     <v>MICRON TECHNOLOGY, INC. (XNAS:MU)</v>
-    <v>16809758</v>
-    <v>14880460</v>
+    <v>8910</v>
+    <v>19295691</v>
     <v>1984</v>
   </rv>
   <rv s="2">
@@ -2585,8 +2582,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2607,7 +2602,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2624,7 +2618,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2635,16 +2629,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2710,19 +2701,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2767,9 +2752,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2777,9 +2759,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3141,10 +3120,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL117" sqref="AL117"/>
+      <selection pane="bottomRight" activeCell="AM120" sqref="AM120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5363,15 +5342,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>2.4041950061772548</v>
+        <v>2.3572274692762858</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>8.5125164038218024</v>
+        <v>8.3462187751813062</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>23.747023121387283</v>
+        <v>23.283109344894026</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15041,7 +15020,7 @@
       </c>
       <c r="AU95" s="38" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.3896999999999999</v>
+        <v>1.3644000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15292,7 +15271,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.100776585</v>
+        <v>9.9687420000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15667,7 +15646,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>9.2261352006886954E-2</v>
+        <v>9.3926984953468115E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15793,7 +15772,7 @@
       </c>
       <c r="AU101" s="39" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>73948230000</v>
+        <v>72503602500</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15919,7 +15898,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.9077386479931131</v>
+        <v>0.90607301504653193</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16045,7 +16024,7 @@
       </c>
       <c r="AU103" s="40">
         <f>AU99+AU101</f>
-        <v>81464230000</v>
+        <v>80019602500</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16335,7 +16314,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.3583584039976922E-2</v>
+        <v>9.2466862756447846E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16533,7 +16512,7 @@
       <c r="AQ107" s="42"/>
       <c r="AR107" s="45">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>85056017447.728302</v>
+        <v>86708863286.532013</v>
       </c>
       <c r="AS107" s="46" t="s">
         <v>148</v>
@@ -16564,7 +16543,7 @@
       </c>
       <c r="AR108" s="45">
         <f>AR107+AR106</f>
-        <v>89870400390.969589</v>
+        <v>91523246229.7733</v>
       </c>
       <c r="AS108" s="46" t="s">
         <v>144</v>
@@ -16574,7 +16553,7 @@
       </c>
       <c r="AU108" s="50">
         <f>AU105</f>
-        <v>9.3583584039976922E-2</v>
+        <v>9.2466862756447846E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16589,7 +16568,7 @@
       </c>
       <c r="AO110" s="39">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>69842833134.743973</v>
+        <v>71230912143.83757</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16616,7 +16595,7 @@
       </c>
       <c r="AO113" s="39">
         <f>AO110+AO111-AO112</f>
-        <v>71657833134.743973</v>
+        <v>73045912143.83757</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16634,7 +16613,7 @@
       </c>
       <c r="AO115" s="54">
         <f>AO113/AO114</f>
-        <v>65.389291849912937</v>
+        <v>66.655943372373656</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16643,7 +16622,7 @@
       </c>
       <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>68.17</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16652,7 +16631,7 @@
       </c>
       <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>-4.0790789938199623E-2</v>
+        <v>6.1274471301684397E-3</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16661,7 +16640,7 @@
       </c>
       <c r="AO118" s="58" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Hardware/Micron Technology.xlsx
+++ b/Technology/Hardware/Micron Technology.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C91FF4-C339-7C44-AD4B-3DFC846786AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB6DE9F-4415-E446-8517-447A6945E720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +545,48 @@
   <si>
     <t>Shares</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -829,22 +855,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -852,47 +869,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,96 +916,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1076,9 +1057,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>MU</a:t>
+              <a:t>Micron</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Technology</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1115,10 +1100,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0383471074380181E-2"/>
-          <c:y val="0.10380635631891164"/>
-          <c:w val="0.8654016528925621"/>
-          <c:h val="0.75116549536786481"/>
+          <c:x val="8.9639669421487586E-2"/>
+          <c:y val="0.15908042156704305"/>
+          <c:w val="0.84424462809917356"/>
+          <c:h val="0.63657717044138573"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1172,6 +1157,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
@@ -1297,7 +1405,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-386E-0B49-854D-73D1445E17D3}"/>
+              <c16:uniqueId val="{00000000-4C14-8E49-952F-AC895B84A5C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1306,11 +1414,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1348,132 +1456,255 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>11500000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-12500000</c:v>
+                  <c:v>-33900000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-600000</c:v>
+                  <c:v>-22900000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143600000</c:v>
+                  <c:v>98000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>204200000</c:v>
+                  <c:v>106100000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81400000</c:v>
+                  <c:v>4900000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96300000</c:v>
+                  <c:v>5100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114700000</c:v>
+                  <c:v>6600000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>301300000</c:v>
+                  <c:v>104100000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>807000000</c:v>
+                  <c:v>400500000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1549500000</c:v>
+                  <c:v>844100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1314200000</c:v>
+                  <c:v>593500000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1061200000</c:v>
+                  <c:v>332200000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>254100000</c:v>
+                  <c:v>-233700000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>738400000</c:v>
+                  <c:v>-68900000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3295200000</c:v>
+                  <c:v>1504200000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43400000</c:v>
+                  <c:v>-625000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>178900000</c:v>
+                  <c:v>-907000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9700000</c:v>
+                  <c:v>-1273200000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1449500000</c:v>
+                  <c:v>157200000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1463100000</c:v>
+                  <c:v>188000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1707000000</c:v>
+                  <c:v>408000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1428000000</c:v>
+                  <c:v>-320000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>459000000</c:v>
+                  <c:v>-1619000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>441000000</c:v>
+                  <c:v>-1835000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4014000000</c:v>
+                  <c:v>1850000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2599000000</c:v>
+                  <c:v>167000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1271000000</c:v>
+                  <c:v>-1032000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3233000000</c:v>
+                  <c:v>1190000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5628000000</c:v>
+                  <c:v>3045000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6094000000</c:v>
+                  <c:v>2899000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3160000000</c:v>
+                  <c:v>-276000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9665000000</c:v>
+                  <c:v>5089000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19404000000</c:v>
+                  <c:v>14135000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12558000000</c:v>
+                  <c:v>6313000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8811000000</c:v>
+                  <c:v>2687000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12652000000</c:v>
+                  <c:v>5861000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16880000000</c:v>
+                  <c:v>8687000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-386E-0B49-854D-73D1445E17D3}"/>
+              <c16:uniqueId val="{00000001-4C14-8E49-952F-AC895B84A5C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1482,11 +1713,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,9 +1755,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1649,7 +2003,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-386E-0B49-854D-73D1445E17D3}"/>
+              <c16:uniqueId val="{00000002-4C14-8E49-952F-AC895B84A5C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1663,11 +2017,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1086445984"/>
-        <c:axId val="1086929520"/>
+        <c:axId val="598330512"/>
+        <c:axId val="598332240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1086445984"/>
+        <c:axId val="598330512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +2049,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1707,7 +2061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1086929520"/>
+        <c:crossAx val="598332240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,7 +2069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1086929520"/>
+        <c:axId val="598332240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1764,7 +2118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1086445984"/>
+        <c:crossAx val="598330512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1782,10 +2136,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38107237587037152"/>
-          <c:y val="0.92446382901955793"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="4.3166108210499508E-2"/>
+          <c:x val="0.35368829309559452"/>
+          <c:y val="0.91352581211724881"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="6.0090894255158997E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2367,20 +2721,20 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE686B6B-B016-5CBD-4F95-20D2DE61A524}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896FAE8B-585A-69A7-95FB-8B39519DE2E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,6 +2753,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3120,10 +3528,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM120" sqref="AM120"/>
+      <selection pane="bottomRight" activeCell="AR101" sqref="AR101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3251,19 +3659,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3272,127 +3680,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3519,206 +3927,206 @@
       <c r="AM3" s="1">
         <v>30758000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>15559000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>21750000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>27606000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>31626000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>35947000000</v>
+      <c r="AN3" s="24">
+        <v>15430000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>27851000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>31561000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>35875000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="62">
         <f>(C3/B3)-1</f>
         <v>-0.35573122529644263</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="62">
         <f>(D3/C3)-1</f>
         <v>0.86503067484662566</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="62">
         <f>(E3/D3)-1</f>
         <v>2.2949561403508771</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="62">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>0.48552412645590692</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="62">
         <f t="shared" si="0"/>
         <v>-0.25336021505376349</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="62">
         <f t="shared" si="0"/>
         <v>0.27632763276327643</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>0.19017395392571701</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="62">
         <f t="shared" si="0"/>
         <v>0.63598656922773067</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="62">
         <f t="shared" si="0"/>
         <v>0.96619582276952798</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="62">
         <f t="shared" si="0"/>
         <v>0.81302959597200042</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="62">
         <f t="shared" si="0"/>
         <v>0.23744369560063672</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="62">
         <f t="shared" si="0"/>
         <v>-3.7851004433740232E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="62">
         <f t="shared" si="0"/>
         <v>-0.14325131560233251</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="62">
         <f t="shared" si="0"/>
         <v>0.24970948570669682</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="62">
         <f t="shared" si="0"/>
         <v>0.94907013815090324</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="62">
         <f t="shared" si="0"/>
         <v>-0.46350340089690989</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="62">
         <f t="shared" si="0"/>
         <v>-0.34220889758378004</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="62">
         <f t="shared" si="0"/>
         <v>0.19401313248358432</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="62">
         <f t="shared" si="0"/>
         <v>0.42470805162876468</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="62">
         <f t="shared" si="0"/>
         <v>0.1080786521956314</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="62">
         <f t="shared" si="0"/>
         <v>8.0283594934633884E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="62">
         <f t="shared" si="0"/>
         <v>7.8907435508345891E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="62">
         <f t="shared" si="0"/>
         <v>2.6898734177215111E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="62">
         <f t="shared" si="0"/>
         <v>-0.17770929635336419</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="62">
         <f t="shared" si="0"/>
         <v>0.76597959608577981</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="62">
         <f t="shared" si="0"/>
         <v>3.6076397076161282E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="62">
         <f t="shared" si="0"/>
         <v>-6.3040509786071897E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="62">
         <f t="shared" si="0"/>
         <v>0.10189458343453972</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="62">
         <f t="shared" si="0"/>
         <v>0.80293177559792794</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="62">
         <f t="shared" si="0"/>
         <v>-1.0147939845946974E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="62">
         <f t="shared" si="0"/>
         <v>-0.23425148221343872</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="62">
         <f t="shared" si="0"/>
         <v>0.63900314541495273</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="62">
         <f t="shared" si="0"/>
         <v>0.49547288652691668</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="62">
         <f t="shared" si="0"/>
         <v>-0.22983778092198348</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="62">
         <f t="shared" si="0"/>
         <v>-8.4209177134068169E-2</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="62">
         <f t="shared" si="0"/>
         <v>0.29251224632610207</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="62">
         <f t="shared" si="0"/>
         <v>0.11019671539433307</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>-0.49414786397034915</v>
+        <v>-0.49834189479159896</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>0.39790474966257472</v>
+        <v>0.29617627997407658</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>0.26924137931034475</v>
+        <v>0.39254999999999995</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1456205172788525</v>
+        <v>0.133208861441241</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13662809081135774</v>
+        <v>0.13668768416716826</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3733,7 +4141,7 @@
         <v>0.3630143177212985</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>9.2250392493145341</v>
       </c>
     </row>
@@ -3975,16 +4383,16 @@
         <v>13898000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4118,7 +4526,7 @@
         <v>0.28239999999999998</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.10124195331295922</v>
       </c>
     </row>
@@ -4127,31 +4535,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1">
         <v>83400000</v>
@@ -4243,7 +4651,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4398,16 +4806,16 @@
         <v>0.10130697704662202</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4415,118 +4823,118 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4550,118 +4958,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4783,21 +5191,21 @@
         <v>1066000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5000,25 +5408,25 @@
         <v>138700000</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1">
         <v>29000000</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1">
         <v>73600000</v>
@@ -5027,13 +5435,13 @@
         <v>21100000</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1">
         <v>-265000000</v>
@@ -5051,10 +5459,10 @@
         <v>-17000000</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1">
         <v>-5000000</v>
@@ -5206,16 +5614,16 @@
         <v>4189000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5336,98 +5744,98 @@
       <c r="AM16" s="1">
         <v>21049000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-4.6586539405968682E-3</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="53">
         <f>AU101/AM3</f>
         <v>2.3572274692762858</v>
       </c>
-      <c r="AU16" s="30">
+      <c r="AU16" s="53">
         <f>AU101/AM28</f>
         <v>8.3462187751813062</v>
       </c>
-      <c r="AV16" s="31">
-        <f>AU101/AM106</f>
+      <c r="AV16" s="55">
+        <f>AU101/AM107</f>
         <v>23.283109344894026</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>135000000</v>
@@ -5472,7 +5880,7 @@
         <v>189000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5591,10 +5999,19 @@
         <v>7116000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5712,14 +6129,41 @@
       <c r="AM19" s="10">
         <v>16880000000</v>
       </c>
-      <c r="AS19" s="32">
+      <c r="AN19" s="57">
+        <v>2168000000</v>
+      </c>
+      <c r="AO19" s="57">
+        <v>7595000000</v>
+      </c>
+      <c r="AP19" s="57">
+        <v>14181000000</v>
+      </c>
+      <c r="AQ19" s="57">
+        <v>16417000000</v>
+      </c>
+      <c r="AR19" s="57">
+        <v>18203000000</v>
+      </c>
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>1815000000</v>
       </c>
+      <c r="AT19" s="53">
+        <f>AU101/AN3</f>
+        <v>4.6988724886584574</v>
+      </c>
+      <c r="AU19" s="54">
+        <f>AO116/AN31</f>
+        <v>-14.56043956043956</v>
+      </c>
+      <c r="AV19" s="55">
+        <f>AU101/AN106</f>
+        <v>-68.5937582781457</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5735,7 +6179,7 @@
         <v>-240.33333333333334</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AR20" si="3">(F19/E19)-1</f>
         <v>0.42200557103064074</v>
       </c>
       <c r="G20" s="15">
@@ -5870,8 +6314,28 @@
         <f t="shared" si="3"/>
         <v>0.33417641479607973</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.87156398104265409</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>2.503228782287823</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.8671494404213298</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.15767576334532118</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10878966924529454</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5989,8 +6453,34 @@
       <c r="AM21" s="2">
         <v>0.54879999999999995</v>
       </c>
+      <c r="AN21" s="58">
+        <f>AN19/AN3</f>
+        <v>0.14050550874918988</v>
+      </c>
+      <c r="AO21" s="58">
+        <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
+        <v>0.37974999999999998</v>
+      </c>
+      <c r="AP21" s="58">
+        <f t="shared" si="4"/>
+        <v>0.50917381781623638</v>
+      </c>
+      <c r="AQ21" s="58">
+        <f t="shared" si="4"/>
+        <v>0.5201672950793701</v>
+      </c>
+      <c r="AR21" s="58">
+        <f t="shared" si="4"/>
+        <v>0.50740069686411149</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6108,8 +6598,16 @@
       <c r="AM22" s="10">
         <v>9702000000</v>
       </c>
+      <c r="AU22" s="63">
+        <f>(-1*AM98)/AU101</f>
+        <v>6.3583047476847791E-3</v>
+      </c>
+      <c r="AV22" s="56">
+        <f>AM107/AU101</f>
+        <v>4.294958998761475E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6228,7 +6726,7 @@
         <v>0.31540000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6236,10 +6734,10 @@
         <v>-1700000</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
         <v>-700000</v>
@@ -6347,7 +6845,7 @@
         <v>-131000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6355,10 +6853,10 @@
         <v>-6500000</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10">
         <v>118200000</v>
@@ -6466,7 +6964,7 @@
         <v>9571000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6474,10 +6972,10 @@
         <v>-8.5599999999999996E-2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2">
         <v>0.39329999999999998</v>
@@ -6585,7 +7083,7 @@
         <v>0.31119999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6593,10 +7091,10 @@
         <v>-6700000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>20200000</v>
@@ -6704,7 +7202,7 @@
         <v>888000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6822,10 +7320,25 @@
       <c r="AM28" s="11">
         <v>8687000000</v>
       </c>
+      <c r="AN28" s="59">
+        <v>-4986000000</v>
+      </c>
+      <c r="AO28" s="59">
+        <v>-1059000000</v>
+      </c>
+      <c r="AP28" s="59">
+        <v>5391000000</v>
+      </c>
+      <c r="AQ28" s="59">
+        <v>7703000000</v>
+      </c>
+      <c r="AR28" s="59">
+        <v>8148000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6841,143 +7354,163 @@
         <v>-5.2794759825327509</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AR29" si="5">(F28/E28)-1</f>
         <v>8.2653061224489788E-2</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.95381715362865216</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.081632653061229E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29411764705882359</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.772727272727273</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8472622478386169</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1076154806491885</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.29688425541997399</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.44026958719460829</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.7034918723660446</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.70517757809157033</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-22.831640058055154</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.4155032575455393</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.45120000000000005</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40374862183020954</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1234684260131951</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1959287531806615</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1702127659574466</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.784313725490196</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0593750000000002</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13341568869672638</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.0081743869209809</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.90972972972972976</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.1796407185628741</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.1531007751937983</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5588235294117645</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.7947454844006532E-2</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.0952052431873061</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-19.438405797101449</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7775594419335823</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.55337813937035729</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.57437034690321553</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1812430219575734</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48217027810953761</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>-1.5739610912858293</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.78760529482551145</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>-6.0906515580736542</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.42886291968094969</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.7769700116837575E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7095,13 +7628,33 @@
       <c r="AM30" s="2">
         <v>0.28239999999999998</v>
       </c>
+      <c r="AN30" s="60">
+        <f>AN28/AN3</f>
+        <v>-0.32313674659753727</v>
+      </c>
+      <c r="AO30" s="60">
+        <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
+        <v>-5.2949999999999997E-2</v>
+      </c>
+      <c r="AP30" s="60">
+        <f t="shared" si="6"/>
+        <v>0.19356576065491365</v>
+      </c>
+      <c r="AQ30" s="60">
+        <f t="shared" si="6"/>
+        <v>0.24406704477044452</v>
+      </c>
+      <c r="AR30" s="60">
+        <f t="shared" si="6"/>
+        <v>0.2271219512195122</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="12">
         <v>-0.18</v>
@@ -7214,13 +7767,28 @@
       <c r="AM31" s="12">
         <v>7.81</v>
       </c>
+      <c r="AN31" s="61">
+        <v>-4.55</v>
+      </c>
+      <c r="AO31" s="61">
+        <v>-0.97</v>
+      </c>
+      <c r="AP31" s="61">
+        <v>4.92</v>
+      </c>
+      <c r="AQ31" s="61">
+        <v>7.03</v>
+      </c>
+      <c r="AR31" s="61">
+        <v>7.44</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="12">
         <v>-0.18</v>
@@ -7574,7 +8142,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7582,147 +8150,147 @@
         <v>-1.7049410229645096E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="7">(D34-C34)/C34</f>
         <v>0.2159292056919101</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29681090393013099</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23198451793551178</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.5002826570687758E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21960473965504157</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.26666666666666666</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21328671212121211</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0989434246867853E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7566539923954372E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.5504162812210914E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1627906976744186E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4367816091954021E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2285579641847314</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1611047180667434</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.1473406012553684E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.536124240378123E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9750623441396506E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2880658436213988E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.7192194517577828E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2763532763532763E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.0827586206896551E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.4207515277597193E-3</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6504854368932041E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.31222680154864496</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.1115446844960504E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6178660049627792E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.5677966101694921E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13414749597652181</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.337228714524207E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.11452991452991453</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11389961389961389</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.4991334488734842E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.9975589910496336E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0498687664041995E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.8417329796640146E-3</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6652059596844872E-2</v>
       </c>
     </row>
@@ -7731,118 +8299,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7850,118 +8418,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -7969,31 +8537,31 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K38" s="1">
         <v>78000000</v>
@@ -8088,31 +8656,31 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>355000000</v>
@@ -8160,13 +8728,13 @@
         <v>119000000</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC39" s="1">
         <v>100000000</v>
@@ -8207,31 +8775,31 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1">
         <v>433000000</v>
@@ -8326,31 +8894,31 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K41" s="1">
         <v>236000000</v>
@@ -8445,31 +9013,31 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1">
         <v>101000000</v>
@@ -8564,31 +9132,31 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="1">
         <v>23000000</v>
@@ -8683,31 +9251,31 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K44" s="10">
         <v>793000000</v>
@@ -8802,31 +9370,31 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K45" s="1">
         <v>664000000</v>
@@ -8921,67 +9489,67 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1">
         <v>502000000</v>
@@ -8993,25 +9561,25 @@
         <v>58000000</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG46" s="1">
         <v>104000000</v>
@@ -9040,31 +9608,31 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1">
         <v>48000000</v>
@@ -9118,10 +9686,10 @@
         <v>323000000</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD47" s="1">
         <v>386000000</v>
@@ -9159,31 +9727,31 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1">
         <v>48000000</v>
@@ -9278,76 +9846,76 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1">
         <v>315000000</v>
@@ -9397,37 +9965,37 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>54000000</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1">
         <v>157000000</v>
@@ -9442,13 +10010,13 @@
         <v>309000000</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1">
         <v>19000000</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1">
         <v>83700000</v>
@@ -9466,19 +10034,19 @@
         <v>65000000</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1">
         <v>861000000</v>
@@ -9516,31 +10084,31 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1">
         <v>-29000000</v>
@@ -9635,31 +10203,31 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1">
         <v>737000000</v>
@@ -9754,118 +10322,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9873,31 +10441,31 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="11">
         <v>1530000000</v>
@@ -9992,49 +10560,49 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L55" s="1">
         <v>502300000</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q55" s="1">
         <v>1465800000</v>
@@ -10070,7 +10638,7 @@
         <v>799000000</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC55" s="1">
         <v>818000000</v>
@@ -10111,34 +10679,34 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1">
         <v>26500000</v>
@@ -10153,16 +10721,16 @@
         <v>10000000</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1">
         <v>47900000</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1">
         <v>88900000</v>
@@ -10230,76 +10798,76 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1">
         <v>32000000</v>
@@ -10308,7 +10876,7 @@
         <v>51000000</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1">
         <v>25000000</v>
@@ -10349,49 +10917,49 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1">
         <v>16400000</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1">
         <v>87900000</v>
@@ -10451,16 +11019,16 @@
         <v>491000000</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10468,31 +11036,31 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1">
         <v>274000000</v>
@@ -10587,31 +11155,31 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K60" s="10">
         <v>274000000</v>
@@ -10706,31 +11274,31 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1">
         <v>125000000</v>
@@ -10825,106 +11393,106 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1">
         <v>636000000</v>
@@ -10944,58 +11512,58 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1">
         <v>93300000</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1">
         <v>333500000</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1">
         <v>41300000</v>
@@ -11013,49 +11581,49 @@
         <v>25000000</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11063,31 +11631,31 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>81000000</v>
@@ -11182,31 +11750,31 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K65" s="1">
         <v>206000000</v>
@@ -11301,118 +11869,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11420,31 +11988,31 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="10">
         <v>480000000</v>
@@ -11539,31 +12107,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1">
         <v>10000000</v>
@@ -11658,31 +12226,31 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" s="1">
         <v>671000000</v>
@@ -11777,31 +12345,31 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1">
         <v>-499000000</v>
@@ -11896,31 +12464,31 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="1">
         <v>867000000</v>
@@ -12015,31 +12583,31 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="10">
         <v>1049000000</v>
@@ -12134,31 +12702,31 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" s="11">
         <v>1529000000</v>
@@ -12253,118 +12821,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12372,118 +12940,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12491,16 +13059,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>106100000</v>
@@ -12610,16 +13178,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>38400000</v>
@@ -12729,25 +13297,25 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>16200000</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1">
         <v>6800000</v>
@@ -12756,10 +13324,10 @@
         <v>-5200000</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1">
         <v>48100000</v>
@@ -12771,13 +13339,13 @@
         <v>30100000</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S78" s="1">
         <v>11400000</v>
@@ -12798,49 +13366,49 @@
         <v>-11000000</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12848,79 +13416,79 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA79" s="1">
         <v>93000000</v>
@@ -12964,158 +13532,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0964395189813724E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.6481565771506595E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.056594607724071E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0029758624490246E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.030199290866854E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0375494071146246E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5404468102266311E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0579667355575239E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.5150867033003188E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0381953345296078E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5302076043853511E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3643746616134272E-2</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6711099551336237E-2</v>
       </c>
     </row>
@@ -13124,16 +13692,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>-34900000</v>
@@ -13243,118 +13811,118 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
@@ -13362,16 +13930,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-19200000</v>
@@ -13475,194 +14043,194 @@
       <c r="AM83" s="1">
         <v>-2179000000</v>
       </c>
-      <c r="AT83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="62"/>
+      <c r="AT83" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU83" s="66"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AT84" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU84" s="67"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1">
         <v>-19700000</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1">
         <v>27900000</v>
@@ -13671,22 +14239,22 @@
         <v>13100000</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z85" s="1">
         <v>66000000</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC85" s="1">
         <v>-56000000</v>
@@ -13719,12 +14287,12 @@
         <v>-50000000</v>
       </c>
       <c r="AM85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AT85" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU85" s="32">
         <f>AM17</f>
         <v>189000000</v>
       </c>
@@ -13734,16 +14302,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>100000</v>
@@ -13847,10 +14415,10 @@
       <c r="AM86" s="1">
         <v>109000000</v>
       </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+      <c r="AT86" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU86" s="32">
         <f>AM56</f>
         <v>103000000</v>
       </c>
@@ -13860,16 +14428,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>125900000</v>
@@ -13973,10 +14541,10 @@
       <c r="AM87" s="10">
         <v>15181000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU87" s="32">
         <f>AM61</f>
         <v>7413000000</v>
       </c>
@@ -13986,16 +14554,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-199100000</v>
@@ -14100,7 +14668,7 @@
         <v>-12067000000</v>
       </c>
       <c r="AT88" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
@@ -14109,164 +14677,164 @@
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.44601254480286739</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.23942394239423942</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12223789374706159</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10053328066363816</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10068815646504889</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.15412010315608499</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.24723134758018084</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.39025124527888772</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1470345612288437</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.23476875062253064</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.21357598299681191</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16196175183675696</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.37821082852714755</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.39100038624951716</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.26574580273671272</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.24537941056264476</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.21818777918937748</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.25891502276176026</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.63343881856540085</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.43297380585516176</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1016031646887362</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.2624381042207031E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.29016841147018663</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.20633956764634442</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1371101069106139</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16248930187064434</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.24833250988142291</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.46915073796273893</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.2329495128432241</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.29215886282122999</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.41784157908228658</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.38362491252624215</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.36202851470853636</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.39232069705442485</v>
+      </c>
+      <c r="AT89" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.44601254480286739</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.23942394239423942</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12223789374706159</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10053328066363816</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10068815646504889</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15412010315608499</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.24723134758018084</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.39025124527888772</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1470345612288437</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.23476875062253064</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21357598299681191</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16196175183675696</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.37821082852714755</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.39100038624951716</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.26574580273671272</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.24537941056264476</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21818777918937748</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.25891502276176026</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.63343881856540085</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.43297380585516176</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1016031646887362</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.2624381042207031E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.29016841147018663</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.20633956764634442</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1371101069106139</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16248930187064434</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.24833250988142291</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.46915073796273893</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.2329495128432241</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.29215886282122999</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.41784157908228658</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.38362491252624215</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.36202851470853636</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.39232069705442485</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="32">
         <f>AM27</f>
         <v>888000000</v>
       </c>
@@ -14276,67 +14844,67 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1">
         <v>416000000</v>
@@ -14345,10 +14913,10 @@
         <v>-73000000</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1">
         <v>518000000</v>
@@ -14357,7 +14925,7 @@
         <v>-159000000</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD90" s="1">
         <v>69000000</v>
@@ -14375,24 +14943,24 @@
         <v>-2634000000</v>
       </c>
       <c r="AI90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM90" s="1">
         <v>888000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="32">
         <f>AM25</f>
         <v>9571000000</v>
       </c>
@@ -14402,16 +14970,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-407400000</v>
@@ -14516,7 +15084,7 @@
         <v>-1770000000</v>
       </c>
       <c r="AT91" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AU91" s="34">
         <f>AU89/AU90</f>
@@ -14528,16 +15096,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>414600000</v>
@@ -14603,10 +15171,10 @@
         <v>171000000</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1">
         <v>152000000</v>
@@ -14641,10 +15209,10 @@
       <c r="AM92" s="1">
         <v>1615000000</v>
       </c>
-      <c r="AT92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU92" s="36">
+      <c r="AT92" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU92" s="34">
         <f>AU88*(1-AU91)</f>
         <v>2.2813268794898818E-2</v>
       </c>
@@ -14654,16 +15222,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-3800000</v>
@@ -14767,26 +15335,26 @@
       <c r="AM93" s="1">
         <v>-12318000000</v>
       </c>
-      <c r="AT93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="64"/>
+      <c r="AT93" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU93" s="67"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-195700000</v>
@@ -14890,11 +15458,12 @@
       <c r="AM94" s="10">
         <v>-11585000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="37">
-        <v>4.095E-2</v>
+      <c r="AT94" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU94" s="35">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14902,76 +15471,76 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1">
         <v>-429000000</v>
@@ -15015,10 +15584,10 @@
       <c r="AM95" s="1">
         <v>-2032000000</v>
       </c>
-      <c r="AT95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="38" cm="1">
+      <c r="AT95" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU95" s="36" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
         <v>1.3644000000000001</v>
       </c>
@@ -15028,16 +15597,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>77600000</v>
@@ -15109,42 +15678,42 @@
         <v>28000000</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AT96" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15153,82 +15722,82 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-2000000</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1">
         <v>-67500000</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB97" s="1">
         <v>-163000000</v>
@@ -15252,7 +15821,7 @@
         <v>-35000000</v>
       </c>
       <c r="AI97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ97" s="1">
         <v>-2729000000</v>
@@ -15266,12 +15835,12 @@
       <c r="AM97" s="1">
         <v>-2432000000</v>
       </c>
-      <c r="AT97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU97" s="36">
+      <c r="AT97" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU97" s="34">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.9687420000000013E-2</v>
+        <v>0.10035427200000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15279,31 +15848,31 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1">
         <v>-1900000</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1">
         <v>-12200000</v>
@@ -15315,103 +15884,103 @@
         <v>-31200000</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM98" s="1">
         <v>-461000000</v>
       </c>
-      <c r="AT98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="64"/>
+      <c r="AT98" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU98" s="67"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>-8400000</v>
@@ -15515,10 +16084,10 @@
       <c r="AM99" s="1">
         <v>1945000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU99" s="32">
         <f>AU86+AU87</f>
         <v>7516000000</v>
       </c>
@@ -15528,16 +16097,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>69200000</v>
@@ -15642,7 +16211,7 @@
         <v>-2980000000</v>
       </c>
       <c r="AT100" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
@@ -15654,91 +16223,91 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE101" s="1">
         <v>-28000000</v>
@@ -15767,10 +16336,10 @@
       <c r="AM101" s="1">
         <v>-106000000</v>
       </c>
-      <c r="AT101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="39" cm="1">
+      <c r="AT101" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU101" s="29" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
         <v>72503602500</v>
       </c>
@@ -15780,16 +16349,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>69200000</v>
@@ -15894,7 +16463,7 @@
         <v>510000000</v>
       </c>
       <c r="AT102" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
@@ -15906,16 +16475,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>12400000</v>
@@ -16019,10 +16588,10 @@
       <c r="AM103" s="1">
         <v>7829000000</v>
       </c>
-      <c r="AT103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="40">
+      <c r="AT103" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU103" s="37">
         <f>AU99+AU101</f>
         <v>80019602500</v>
       </c>
@@ -16032,31 +16601,31 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11">
         <v>78400000</v>
@@ -16145,502 +16714,630 @@
       <c r="AM104" s="11">
         <v>8339000000</v>
       </c>
-      <c r="AT104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="64"/>
+      <c r="AT104" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU104" s="67"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>157</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="10">(B22*(1-$AU$91))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-1.1557377049180328</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
-        <v>2.0175438596491229</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.66860465116279078</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.029616724738676</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.762507188039103</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.5040783034256986E-3</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.1832901554404147</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.2372742200328406</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.973471741637832</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.0849584861942461</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>19.002272727272729</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.7947960459038745</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.37927090779127948</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.23744818056195305</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.1453564116880699</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.2151088348271446</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.7803468208092488</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.0764525993883796</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.43323330832708173</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.4751819986763732</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.4540389972144845</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.0266129032258065</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.2878787878787881</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.36626506024096384</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.3633156966490301</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.60966787241039133</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.2316764953664703</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.290675726689317</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.4922491956712487</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.59992958572937449</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.97565268407157524</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>28.373493975903614</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.27727645611156682</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>-59154153.171037495</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>12247434.959774315</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>37005192.769825518</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>53328910.249712676</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>231998474.55856234</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>439066952.25159335</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>620710375.09142208</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>-199530968.5508306</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>138865217.84557521</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>-601003656.8801589</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>-2539327.1340507269</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>1265526998.2238011</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>-2025900062.6893742</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>-884772385.33068645</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>-851016205.20321798</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>129932765.64622307</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>205520290.46076679</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>538526904.1897397</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>-2730021523.3517919</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>-2112015463.3789573</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>26406958.520530701</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>2331572145.0214186</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>101950893.3235817</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>495338209.17354512</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>454103855.39651036</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>2903587294.9535055</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>1335844739.3166866</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>-2574587085.988925</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>3270565353.672554</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>7560852575.4884567</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>3214652700.8672028</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>-256619162.05203247</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="10"/>
+        <v>1464061540.0689583</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>2605845784.1395893</v>
+      </c>
+      <c r="AN105" s="27">
+        <f>AM105*(1+$AU$106)</f>
+        <v>2845730008.7438455</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" ref="AO105:AR105" si="11">AN105*(1+$AU$106)</f>
+        <v>3107697060.1846809</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="11"/>
+        <v>3393779799.2802629</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="11"/>
+        <v>3706198224.2626691</v>
+      </c>
+      <c r="AR105" s="27">
+        <f t="shared" si="11"/>
+        <v>4047376697.9345002</v>
+      </c>
+      <c r="AS105" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT105" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU105" s="39">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.2466862756447846E-2</v>
+        <v>9.3071079358677644E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-73200000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>11400000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>34400000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>57400000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>173900000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>306500000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>308800000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-365400000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>86700000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-517900000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>44000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>880100000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>-699500000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>-434200000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>-537300000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>78100000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>173000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>654000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>-2666000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>-1511000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>718000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>2480000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>-66000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>415000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>567000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>3041000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>1187000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>-2649000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>3419000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>8521000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>3409000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>83000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>2438000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>3114000000</v>
-      </c>
-      <c r="AN106" s="41">
-        <f>AM106*(1+$AU$106)</f>
-        <v>3397527752.5621839</v>
-      </c>
-      <c r="AO106" s="41">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>3706870529.6821589</v>
-      </c>
-      <c r="AP106" s="41">
-        <f t="shared" si="9"/>
-        <v>4044378773.2016754</v>
-      </c>
-      <c r="AQ106" s="41">
-        <f t="shared" si="9"/>
-        <v>4412616931.2222509</v>
-      </c>
-      <c r="AR106" s="41">
-        <f t="shared" si="9"/>
-        <v>4814382943.2412891</v>
-      </c>
-      <c r="AS106" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="44">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.1557377049180328</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.0175438596491229</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.66860465116279078</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.029616724738676</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.762507188039103</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>7.5040783034256986E-3</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.1832901554404147</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.2372742200328406</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>-6.973471741637832</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.0849584861942461</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
+        <v>19.002272727272729</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.7947960459038745</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.37927090779127948</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.23744818056195305</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.1453564116880699</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.2151088348271446</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.7803468208092488</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="12"/>
+        <v>-5.0764525993883796</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.43323330832708173</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.4751819986763732</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.4540389972144845</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.0266129032258065</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="12"/>
+        <v>-7.2878787878787881</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.36626506024096384</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="12"/>
+        <v>4.3633156966490301</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.60966787241039133</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="12"/>
+        <v>-3.2316764953664703</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.290675726689317</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.4922491956712487</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.59992958572937449</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.97565268407157524</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="12"/>
+        <v>28.373493975903614</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.27727645611156682</v>
+      </c>
+      <c r="AN106" s="52">
+        <v>-1057000000</v>
+      </c>
+      <c r="AO106" s="52">
+        <v>-404000000</v>
+      </c>
+      <c r="AP106" s="52">
+        <v>2620000000</v>
+      </c>
+      <c r="AQ106" s="52">
+        <v>2884000000</v>
+      </c>
+      <c r="AR106" s="52">
+        <v>2860000000</v>
+      </c>
+      <c r="AS106" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT106" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU106" s="41">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>9.1049374618556111E-2</v>
+        <v>9.2056186158177372E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="42"/>
-      <c r="AO107" s="42"/>
-      <c r="AP107" s="42"/>
-      <c r="AQ107" s="42"/>
-      <c r="AR107" s="45">
-        <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>86708863286.532013</v>
-      </c>
-      <c r="AS107" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="48">
-        <v>3.5000000000000003E-2</v>
+      <c r="A107" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-73200000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>11400000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>34400000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>57400000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>173900000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>306500000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>308800000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-365400000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>86700000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-517900000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>44000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>880100000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>-699500000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>-434200000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>-537300000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>78100000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>173000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>654000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>-2666000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>-1511000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>718000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>2480000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>-66000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>415000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>567000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>3041000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>1187000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>-2649000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>3419000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>8521000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>3409000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>83000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>2438000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>3114000000</v>
+      </c>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="29">
+        <f>AR105*(1+AU107)/(AU108-AU107)</f>
+        <v>60944547294.797775</v>
+      </c>
+      <c r="AS107" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT107" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU107" s="43">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="45">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>3397527752.5621839</v>
-      </c>
-      <c r="AO108" s="45">
-        <f t="shared" si="10"/>
-        <v>3706870529.6821589</v>
-      </c>
-      <c r="AP108" s="45">
-        <f t="shared" si="10"/>
-        <v>4044378773.2016754</v>
-      </c>
-      <c r="AQ108" s="45">
-        <f>AQ107+AQ106</f>
-        <v>4412616931.2222509</v>
-      </c>
-      <c r="AR108" s="45">
-        <f>AR107+AR106</f>
-        <v>91523246229.7733</v>
-      </c>
-      <c r="AS108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="50">
+      <c r="AN108" s="29">
+        <f t="shared" ref="AN108:AQ108" si="13">AN107+AN105</f>
+        <v>2845730008.7438455</v>
+      </c>
+      <c r="AO108" s="29">
+        <f t="shared" si="13"/>
+        <v>3107697060.1846809</v>
+      </c>
+      <c r="AP108" s="29">
+        <f t="shared" si="13"/>
+        <v>3393779799.2802629</v>
+      </c>
+      <c r="AQ108" s="29">
+        <f t="shared" si="13"/>
+        <v>3706198224.2626691</v>
+      </c>
+      <c r="AR108" s="29">
+        <f>AR107+AR105</f>
+        <v>64991923992.732277</v>
+      </c>
+      <c r="AS108" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT108" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU108" s="41">
         <f>AU105</f>
-        <v>9.2466862756447846E-2</v>
+        <v>9.3071079358677644E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="60"/>
+      <c r="AN109" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO109" s="64"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="39">
+      <c r="AN110" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO110" s="29">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>71230912143.83757</v>
+        <v>52049438057.492935</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="39">
+      <c r="AN111" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO111" s="29">
         <f>AM40</f>
         <v>9331000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="39">
+      <c r="AN112" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO112" s="29">
         <f>AU99</f>
         <v>7516000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="39">
+      <c r="AN113" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO113" s="29">
         <f>AO110+AO111-AO112</f>
-        <v>73045912143.83757</v>
+        <v>53864438057.492935</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO114" s="52">
+      <c r="AN114" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO114" s="45">
         <f>AM34*(1+(AS16*5))</f>
         <v>1095864951.3932514</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO115" s="54">
+      <c r="AN115" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO115" s="47">
         <f>AO113/AO114</f>
-        <v>66.655943372373656</v>
+        <v>49.152441629793181</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO116" s="55" cm="1">
+      <c r="AN116" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO116" s="48" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
         <v>66.25</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO117" s="57">
+      <c r="AN117" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO117" s="49">
         <f>AO115/AO116-1</f>
-        <v>6.1274471301684397E-3</v>
+        <v>-0.2580763527578388</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO118" s="58" t="str">
+      <c r="AN118" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO118" s="50" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
@@ -16731,8 +17428,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/723125/000072312522000048/0000723125-22-000048-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/723125/000072312522000048/0000723125-22-000048-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:MU/explorer/revenue_proj" xr:uid="{66E3942F-D358-E544-BF82-3F24C4AAA9FB}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{8113B498-A706-2E42-9D3B-5D22C713A3FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Micron Technology.xlsx
+++ b/Technology/Hardware/Micron Technology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB6DE9F-4415-E446-8517-447A6945E720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65FA6DD-6D22-3B46-A07C-0F27AB10308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="170">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Unlevered FCF Proj</t>
   </si>
   <si>
-    <t>Unlevered FCF Forecast</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
@@ -573,7 +570,19 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
@@ -588,7 +597,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +709,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -874,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -924,56 +940,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,14 +979,92 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1059,11 +1121,7 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Micron</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400" baseline="0"/>
-              <a:t> Technology</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2400"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1100,15 +1158,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9639669421487586E-2"/>
-          <c:y val="0.15908042156704305"/>
-          <c:w val="0.84424462809917356"/>
-          <c:h val="0.63657717044138573"/>
+          <c:x val="9.6991735537190066E-2"/>
+          <c:y val="0.15972473279369476"/>
+          <c:w val="0.82499173553719007"/>
+          <c:h val="0.62036357865737712"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1159,10 +1217,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1985</c:v>
                 </c:pt>
@@ -1276,16 +1334,31 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AR$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>75900000</c:v>
                 </c:pt>
@@ -1399,13 +1472,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>30758000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15430000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20211000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28213000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33324000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33942000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C14-8E49-952F-AC895B84A5C4}"/>
+              <c16:uniqueId val="{00000000-7BC4-4047-A94A-070205C5EB26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1458,10 +1546,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1985</c:v>
                 </c:pt>
@@ -1575,16 +1663,31 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>200000</c:v>
                 </c:pt>
@@ -1698,13 +1801,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8687000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4983000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-985000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5723000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8656000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7579000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4C14-8E49-952F-AC895B84A5C4}"/>
+              <c16:uniqueId val="{00000001-7BC4-4047-A94A-070205C5EB26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1757,10 +1875,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1985</c:v>
                 </c:pt>
@@ -1874,16 +1992,31 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AR$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1997,13 +2130,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3114000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6909000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3084000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1667000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4919000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3545000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4C14-8E49-952F-AC895B84A5C4}"/>
+              <c16:uniqueId val="{00000002-7BC4-4047-A94A-070205C5EB26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2015,13 +2163,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="598330512"/>
-        <c:axId val="598332240"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2055833120"/>
+        <c:axId val="2055835120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="598330512"/>
+        <c:axId val="2055833120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2197,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2061,7 +2209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598332240"/>
+        <c:crossAx val="2055835120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2069,10 +2217,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598332240"/>
+        <c:axId val="2055835120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="-5000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2118,7 +2266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598330512"/>
+        <c:crossAx val="2055833120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2136,10 +2284,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35368829309559452"/>
-          <c:y val="0.91352581211724881"/>
+          <c:x val="0.3431097806989003"/>
+          <c:y val="0.88173832776677452"/>
           <c:w val="0.31378033448298304"/>
-          <c:h val="6.0090894255158997E-2"/>
+          <c:h val="6.6418814263011161E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2246,7 +2394,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2484,7 +2632,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2720,21 +2867,21 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896FAE8B-585A-69A7-95FB-8B39519DE2E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68D5275-81C0-BDFF-3199-86399860B8CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,48 +2909,40 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
+      <sheetName val="ROIC"/>
       <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
-      <sheetName val="Healthcare"/>
-      <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.7160000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2931,9 +3070,11 @@
     <v>Powered by Refinitiv</v>
     <v>74.769900000000007</v>
     <v>48.43</v>
-    <v>1.3644000000000001</v>
-    <v>0.45</v>
-    <v>6.8389999999999996E-3</v>
+    <v>1.3052999999999999</v>
+    <v>1.0249999999999999</v>
+    <v>1.4869E-2</v>
+    <v>0.02</v>
+    <v>2.8590000000000001E-4</v>
     <v>USD</v>
     <v>Micron Technology, Inc. is a provider of memory and storage solutions. The Company's product portfolio includes dynamic random-access memory (DRAM), negative-AND (NAND), three-dimensional (3D) XPoint memory, and NOR, solid-state drives, graphics and high bandwidth memory (HBM), managed NAND and multichip packages. Its brands include Micron and Crucial. The Company's segments include Compute and Networking Business Unit (CNBU) includes memory products sold into client, cloud server, enterprise, graphics, and networking markets; Mobile Business Unit (MBU) includes memory and storage products sold into smartphone and other mobile-device markets; Storage Business Unit (SBU) includes solid state drives (SSDs) and component-level solutions sold into enterprise and cloud, client, and consumer storage markets and other discrete storage products; Embedded Business Unit (EBU) includes memory and storage products sold into automotive, industrial, and consumer markets.</v>
     <v>48000</v>
@@ -2941,24 +3082,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>PO BOX 6, 8000 S FEDERAL WAY, BOISE, ID, 83716-9632 US</v>
-    <v>66.66</v>
+    <v>70.325000000000003</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.999881029689</v>
+    <v>45205.995257568749</v>
     <v>0</v>
-    <v>65.510000000000005</v>
-    <v>72503602500</v>
+    <v>68.000100000000003</v>
+    <v>76627300000</v>
     <v>MICRON TECHNOLOGY, INC.</v>
     <v>MICRON TECHNOLOGY, INC.</v>
-    <v>65.53</v>
-    <v>47.583799999999997</v>
-    <v>65.8</v>
-    <v>66.25</v>
-    <v>1094394000</v>
+    <v>68.709999999999994</v>
+    <v>46.887099999999997</v>
+    <v>68.935000000000002</v>
+    <v>69.959999999999994</v>
+    <v>69.98</v>
+    <v>1095302000</v>
     <v>MU</v>
     <v>MICRON TECHNOLOGY, INC. (XNAS:MU)</v>
-    <v>8910</v>
-    <v>19295691</v>
+    <v>15113360</v>
+    <v>15075529</v>
     <v>1984</v>
   </rv>
   <rv s="2">
@@ -2990,6 +3132,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3010,6 +3154,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3026,7 +3171,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3037,13 +3182,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3109,13 +3257,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3160,6 +3314,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3167,6 +3324,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3525,13 +3685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV118"/>
+  <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR101" sqref="AR101"/>
+      <selection pane="bottomRight" activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3931,16 +4091,16 @@
         <v>15430000000</v>
       </c>
       <c r="AO3" s="24">
-        <v>20000000000</v>
+        <v>20211000000</v>
       </c>
       <c r="AP3" s="24">
-        <v>27851000000</v>
+        <v>28213000000</v>
       </c>
       <c r="AQ3" s="24">
-        <v>31561000000</v>
+        <v>33324000000</v>
       </c>
       <c r="AR3" s="24">
-        <v>35875000000</v>
+        <v>33942000000</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>107</v>
@@ -3960,151 +4120,151 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="62">
+      <c r="C4" s="42">
         <f>(C3/B3)-1</f>
         <v>-0.35573122529644263</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="42">
         <f>(D3/C3)-1</f>
         <v>0.86503067484662566</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="42">
         <f>(E3/D3)-1</f>
         <v>2.2949561403508771</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="42">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>0.48552412645590692</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="42">
         <f t="shared" si="0"/>
         <v>-0.25336021505376349</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="42">
         <f t="shared" si="0"/>
         <v>0.27632763276327643</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="42">
         <f t="shared" si="0"/>
         <v>0.19017395392571701</v>
       </c>
-      <c r="J4" s="62">
+      <c r="J4" s="42">
         <f t="shared" si="0"/>
         <v>0.63598656922773067</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="42">
         <f t="shared" si="0"/>
         <v>0.96619582276952798</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="42">
         <f t="shared" si="0"/>
         <v>0.81302959597200042</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="42">
         <f t="shared" si="0"/>
         <v>0.23744369560063672</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="42">
         <f t="shared" si="0"/>
         <v>-3.7851004433740232E-2</v>
       </c>
-      <c r="O4" s="62">
+      <c r="O4" s="42">
         <f t="shared" si="0"/>
         <v>-0.14325131560233251</v>
       </c>
-      <c r="P4" s="62">
+      <c r="P4" s="42">
         <f t="shared" si="0"/>
         <v>0.24970948570669682</v>
       </c>
-      <c r="Q4" s="62">
+      <c r="Q4" s="42">
         <f t="shared" si="0"/>
         <v>0.94907013815090324</v>
       </c>
-      <c r="R4" s="62">
+      <c r="R4" s="42">
         <f t="shared" si="0"/>
         <v>-0.46350340089690989</v>
       </c>
-      <c r="S4" s="62">
+      <c r="S4" s="42">
         <f t="shared" si="0"/>
         <v>-0.34220889758378004</v>
       </c>
-      <c r="T4" s="62">
+      <c r="T4" s="42">
         <f t="shared" si="0"/>
         <v>0.19401313248358432</v>
       </c>
-      <c r="U4" s="62">
+      <c r="U4" s="42">
         <f t="shared" si="0"/>
         <v>0.42470805162876468</v>
       </c>
-      <c r="V4" s="62">
+      <c r="V4" s="42">
         <f t="shared" si="0"/>
         <v>0.1080786521956314</v>
       </c>
-      <c r="W4" s="62">
+      <c r="W4" s="42">
         <f t="shared" si="0"/>
         <v>8.0283594934633884E-2</v>
       </c>
-      <c r="X4" s="62">
+      <c r="X4" s="42">
         <f t="shared" si="0"/>
         <v>7.8907435508345891E-2</v>
       </c>
-      <c r="Y4" s="62">
+      <c r="Y4" s="42">
         <f t="shared" si="0"/>
         <v>2.6898734177215111E-2</v>
       </c>
-      <c r="Z4" s="62">
+      <c r="Z4" s="42">
         <f t="shared" si="0"/>
         <v>-0.17770929635336419</v>
       </c>
-      <c r="AA4" s="62">
+      <c r="AA4" s="42">
         <f t="shared" si="0"/>
         <v>0.76597959608577981</v>
       </c>
-      <c r="AB4" s="62">
+      <c r="AB4" s="42">
         <f t="shared" si="0"/>
         <v>3.6076397076161282E-2</v>
       </c>
-      <c r="AC4" s="62">
+      <c r="AC4" s="42">
         <f t="shared" si="0"/>
         <v>-6.3040509786071897E-2</v>
       </c>
-      <c r="AD4" s="62">
+      <c r="AD4" s="42">
         <f t="shared" si="0"/>
         <v>0.10189458343453972</v>
       </c>
-      <c r="AE4" s="62">
+      <c r="AE4" s="42">
         <f t="shared" si="0"/>
         <v>0.80293177559792794</v>
       </c>
-      <c r="AF4" s="62">
+      <c r="AF4" s="42">
         <f t="shared" si="0"/>
         <v>-1.0147939845946974E-2</v>
       </c>
-      <c r="AG4" s="62">
+      <c r="AG4" s="42">
         <f t="shared" si="0"/>
         <v>-0.23425148221343872</v>
       </c>
-      <c r="AH4" s="62">
+      <c r="AH4" s="42">
         <f t="shared" si="0"/>
         <v>0.63900314541495273</v>
       </c>
-      <c r="AI4" s="62">
+      <c r="AI4" s="42">
         <f t="shared" si="0"/>
         <v>0.49547288652691668</v>
       </c>
-      <c r="AJ4" s="62">
+      <c r="AJ4" s="42">
         <f t="shared" si="0"/>
         <v>-0.22983778092198348</v>
       </c>
-      <c r="AK4" s="62">
+      <c r="AK4" s="42">
         <f t="shared" si="0"/>
         <v>-8.4209177134068169E-2</v>
       </c>
-      <c r="AL4" s="62">
+      <c r="AL4" s="42">
         <f t="shared" si="0"/>
         <v>0.29251224632610207</v>
       </c>
-      <c r="AM4" s="62">
+      <c r="AM4" s="42">
         <f t="shared" si="0"/>
         <v>0.11019671539433307</v>
       </c>
@@ -4114,19 +4274,19 @@
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>0.29617627997407658</v>
+        <v>0.30985093972780309</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>0.39254999999999995</v>
+        <v>0.39592301222106774</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.133208861441241</v>
+        <v>0.18115762237266497</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13668768416716826</v>
+        <v>1.8545192653943054E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -5748,17 +5908,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-4.6586539405968682E-3</v>
       </c>
-      <c r="AT16" s="53">
-        <f>AU101/AM3</f>
-        <v>2.3572274692762858</v>
-      </c>
-      <c r="AU16" s="53">
-        <f>AU101/AM28</f>
-        <v>8.3462187751813062</v>
-      </c>
-      <c r="AV16" s="55">
-        <f>AU101/AM107</f>
-        <v>23.283109344894026</v>
+      <c r="AT16" s="33">
+        <f>AU102/AM3</f>
+        <v>2.4912965732492358</v>
+      </c>
+      <c r="AU16" s="33">
+        <f>AU102/AM28</f>
+        <v>8.820916311730171</v>
+      </c>
+      <c r="AV16" s="35">
+        <f>AU102/AM107</f>
+        <v>24.607353885677586</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6002,13 +6162,13 @@
         <v>123</v>
       </c>
       <c r="AT18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU18" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="AU18" s="19" t="s">
+      <c r="AV18" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="AV18" s="19" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6129,36 +6289,35 @@
       <c r="AM19" s="10">
         <v>16880000000</v>
       </c>
-      <c r="AN19" s="57">
-        <v>2168000000</v>
-      </c>
-      <c r="AO19" s="57">
+      <c r="AN19" s="37">
+        <v>2178000000</v>
+      </c>
+      <c r="AO19" s="37">
         <v>7595000000</v>
       </c>
-      <c r="AP19" s="57">
+      <c r="AP19" s="37">
         <v>14181000000</v>
       </c>
-      <c r="AQ19" s="57">
-        <v>16417000000</v>
-      </c>
-      <c r="AR19" s="57">
-        <v>18203000000</v>
+      <c r="AQ19" s="37">
+        <v>16698000000</v>
+      </c>
+      <c r="AR19" s="37">
+        <v>15610000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>1815000000</v>
       </c>
-      <c r="AT19" s="53">
-        <f>AU101/AN3</f>
-        <v>4.6988724886584574</v>
-      </c>
-      <c r="AU19" s="54">
-        <f>AO116/AN31</f>
-        <v>-14.56043956043956</v>
-      </c>
-      <c r="AV19" s="55">
-        <f>AU101/AN106</f>
-        <v>-68.5937582781457</v>
+      <c r="AT19" s="33">
+        <f>AU102/AN3</f>
+        <v>4.9661244329228778</v>
+      </c>
+      <c r="AU19" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV19" s="35">
+        <f>AU102/AN105</f>
+        <v>27.191778558855152</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6316,11 +6475,11 @@
       </c>
       <c r="AN20" s="16">
         <f t="shared" si="3"/>
-        <v>-0.87156398104265409</v>
+        <v>-0.8709715639810427</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" si="3"/>
-        <v>2.503228782287823</v>
+        <v>2.4871441689623506</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" si="3"/>
@@ -6328,11 +6487,11 @@
       </c>
       <c r="AQ20" s="16">
         <f t="shared" si="3"/>
-        <v>0.15767576334532118</v>
+        <v>0.17749100909667859</v>
       </c>
       <c r="AR20" s="16">
         <f t="shared" si="3"/>
-        <v>0.10878966924529454</v>
+        <v>-6.5157503892681712E-2</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -6453,31 +6612,34 @@
       <c r="AM21" s="2">
         <v>0.54879999999999995</v>
       </c>
-      <c r="AN21" s="58">
+      <c r="AN21" s="38">
         <f>AN19/AN3</f>
-        <v>0.14050550874918988</v>
-      </c>
-      <c r="AO21" s="58">
+        <v>0.14115359688917692</v>
+      </c>
+      <c r="AO21" s="38">
         <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
-        <v>0.37974999999999998</v>
-      </c>
-      <c r="AP21" s="58">
+        <v>0.37578546336153579</v>
+      </c>
+      <c r="AP21" s="38">
         <f t="shared" si="4"/>
-        <v>0.50917381781623638</v>
-      </c>
-      <c r="AQ21" s="58">
+        <v>0.50264062666146814</v>
+      </c>
+      <c r="AQ21" s="38">
         <f t="shared" si="4"/>
-        <v>0.5201672950793701</v>
-      </c>
-      <c r="AR21" s="58">
+        <v>0.50108030248469571</v>
+      </c>
+      <c r="AR21" s="38">
         <f t="shared" si="4"/>
-        <v>0.50740069686411149</v>
+        <v>0.45990218608214012</v>
+      </c>
+      <c r="AT21" s="44" t="s">
+        <v>168</v>
       </c>
       <c r="AU21" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6598,13 +6760,17 @@
       <c r="AM22" s="10">
         <v>9702000000</v>
       </c>
-      <c r="AU22" s="63">
-        <f>(-1*AM98)/AU101</f>
-        <v>6.3583047476847791E-3</v>
-      </c>
-      <c r="AV22" s="56">
-        <f>AM107/AU101</f>
-        <v>4.294958998761475E-2</v>
+      <c r="AT22" s="17">
+        <f>SUM(AN29:AR29)/5</f>
+        <v>-1.7596049730679844</v>
+      </c>
+      <c r="AU22" s="43">
+        <f>(-1*AM98)/AU102</f>
+        <v>6.0161326315816945E-3</v>
+      </c>
+      <c r="AV22" s="36">
+        <f>AN107/AU102</f>
+        <v>-9.0163688398260153E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7320,20 +7486,20 @@
       <c r="AM28" s="11">
         <v>8687000000</v>
       </c>
-      <c r="AN28" s="59">
-        <v>-4986000000</v>
-      </c>
-      <c r="AO28" s="59">
-        <v>-1059000000</v>
-      </c>
-      <c r="AP28" s="59">
-        <v>5391000000</v>
-      </c>
-      <c r="AQ28" s="59">
-        <v>7703000000</v>
-      </c>
-      <c r="AR28" s="59">
-        <v>8148000000</v>
+      <c r="AN28" s="39">
+        <v>-4983000000</v>
+      </c>
+      <c r="AO28" s="39">
+        <v>-985000000</v>
+      </c>
+      <c r="AP28" s="39">
+        <v>5723000000</v>
+      </c>
+      <c r="AQ28" s="39">
+        <v>8656000000</v>
+      </c>
+      <c r="AR28" s="39">
+        <v>7579000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7491,23 +7657,23 @@
       </c>
       <c r="AN29" s="16">
         <f t="shared" si="5"/>
-        <v>-1.5739610912858293</v>
+        <v>-1.5736157476689305</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" si="5"/>
-        <v>-0.78760529482551145</v>
+        <v>-0.80232791491069633</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" si="5"/>
-        <v>-6.0906515580736542</v>
+        <v>-6.8101522842639595</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" si="5"/>
-        <v>0.42886291968094969</v>
+        <v>0.51249344749257375</v>
       </c>
       <c r="AR29" s="16">
         <f t="shared" si="5"/>
-        <v>5.7769700116837575E-2</v>
+        <v>-0.12442236598890943</v>
       </c>
     </row>
     <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7628,25 +7794,25 @@
       <c r="AM30" s="2">
         <v>0.28239999999999998</v>
       </c>
-      <c r="AN30" s="60">
+      <c r="AN30" s="40">
         <f>AN28/AN3</f>
-        <v>-0.32313674659753727</v>
-      </c>
-      <c r="AO30" s="60">
+        <v>-0.32294232015554114</v>
+      </c>
+      <c r="AO30" s="40">
         <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
-        <v>-5.2949999999999997E-2</v>
-      </c>
-      <c r="AP30" s="60">
+        <v>-4.8735836920488843E-2</v>
+      </c>
+      <c r="AP30" s="40">
         <f t="shared" si="6"/>
-        <v>0.19356576065491365</v>
-      </c>
-      <c r="AQ30" s="60">
+        <v>0.20284975011519513</v>
+      </c>
+      <c r="AQ30" s="40">
         <f t="shared" si="6"/>
-        <v>0.24406704477044452</v>
-      </c>
-      <c r="AR30" s="60">
+        <v>0.25975273076461408</v>
+      </c>
+      <c r="AR30" s="40">
         <f t="shared" si="6"/>
-        <v>0.2271219512195122</v>
+        <v>0.22329267574096989</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7767,20 +7933,20 @@
       <c r="AM31" s="12">
         <v>7.81</v>
       </c>
-      <c r="AN31" s="61">
+      <c r="AN31" s="41">
         <v>-4.55</v>
       </c>
-      <c r="AO31" s="61">
-        <v>-0.97</v>
-      </c>
-      <c r="AP31" s="61">
-        <v>4.92</v>
-      </c>
-      <c r="AQ31" s="61">
-        <v>7.03</v>
-      </c>
-      <c r="AR31" s="61">
-        <v>7.44</v>
+      <c r="AO31" s="41">
+        <v>-0.9</v>
+      </c>
+      <c r="AP31" s="41">
+        <v>5.23</v>
+      </c>
+      <c r="AQ31" s="41">
+        <v>7.9</v>
+      </c>
+      <c r="AR31" s="41">
+        <v>6.92</v>
       </c>
     </row>
     <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7902,7 +8068,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -8020,8 +8186,12 @@
       <c r="AM33" s="1">
         <v>1112000000</v>
       </c>
+      <c r="AN33" s="1" cm="1">
+        <f t="array" ref="AN33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>1095302000</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -8139,8 +8309,12 @@
       <c r="AM34" s="1">
         <v>1122000000</v>
       </c>
+      <c r="AN34" s="1" cm="1">
+        <f t="array" ref="AN34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>1095302000</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -8150,7 +8324,7 @@
         <v>-1.7049410229645096E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="7">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AN35" si="7">(D34-C34)/C34</f>
         <v>0.2159292056919101</v>
       </c>
       <c r="E35" s="22">
@@ -8293,8 +8467,12 @@
         <f t="shared" si="7"/>
         <v>-1.6652059596844872E-2</v>
       </c>
+      <c r="AN35" s="22">
+        <f t="shared" si="7"/>
+        <v>-2.3795008912655971E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -8413,7 +8591,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -8532,7 +8710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -8651,7 +8829,7 @@
         <v>8262000000</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -8770,7 +8948,7 @@
         <v>1069000000</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -8889,7 +9067,7 @@
         <v>9331000000</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -9008,7 +9186,7 @@
         <v>5130000000</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -9127,7 +9305,7 @@
         <v>6663000000</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -9246,7 +9424,7 @@
         <v>657000000</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -9365,7 +9543,7 @@
         <v>21781000000</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -9484,7 +9662,7 @@
         <v>39227000000</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -9603,7 +9781,7 @@
         <v>1228000000</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -9722,7 +9900,7 @@
         <v>421000000</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -13925,7 +14103,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -14043,12 +14221,14 @@
       <c r="AM83" s="1">
         <v>-2179000000</v>
       </c>
-      <c r="AT83" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU83" s="66"/>
+      <c r="AN83" s="47"/>
+      <c r="AO83" s="47"/>
+      <c r="AP83" s="47"/>
+      <c r="AQ83" s="47"/>
+      <c r="AR83" s="47"/>
+      <c r="AS83" s="47"/>
     </row>
-    <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -14166,12 +14346,18 @@
       <c r="AM84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT84" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU84" s="67"/>
+      <c r="AN84" s="47"/>
+      <c r="AO84" s="47"/>
+      <c r="AP84" s="47"/>
+      <c r="AQ84" s="47"/>
+      <c r="AR84" s="47"/>
+      <c r="AS84" s="47"/>
+      <c r="AT84" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU84" s="70"/>
     </row>
-    <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -14289,13 +14475,16 @@
       <c r="AM85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT85" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU85" s="32">
-        <f>AM17</f>
-        <v>189000000</v>
-      </c>
+      <c r="AN85" s="47"/>
+      <c r="AO85" s="47"/>
+      <c r="AP85" s="47"/>
+      <c r="AQ85" s="47"/>
+      <c r="AR85" s="47"/>
+      <c r="AS85" s="47"/>
+      <c r="AT85" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU85" s="73"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -14415,12 +14604,18 @@
       <c r="AM86" s="1">
         <v>109000000</v>
       </c>
-      <c r="AT86" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU86" s="32">
-        <f>AM56</f>
-        <v>103000000</v>
+      <c r="AN86" s="47"/>
+      <c r="AO86" s="47"/>
+      <c r="AP86" s="47"/>
+      <c r="AQ86" s="47"/>
+      <c r="AR86" s="47"/>
+      <c r="AS86" s="47"/>
+      <c r="AT86" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU86" s="48">
+        <f>AM17</f>
+        <v>189000000</v>
       </c>
     </row>
     <row r="87" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14541,12 +14736,18 @@
       <c r="AM87" s="10">
         <v>15181000000</v>
       </c>
-      <c r="AT87" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU87" s="32">
-        <f>AM61</f>
-        <v>7413000000</v>
+      <c r="AN87" s="47"/>
+      <c r="AO87" s="47"/>
+      <c r="AP87" s="47"/>
+      <c r="AQ87" s="47"/>
+      <c r="AR87" s="47"/>
+      <c r="AS87" s="47"/>
+      <c r="AT87" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU87" s="48">
+        <f>AM56</f>
+        <v>103000000</v>
       </c>
     </row>
     <row r="88" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14667,12 +14868,18 @@
       <c r="AM88" s="1">
         <v>-12067000000</v>
       </c>
-      <c r="AT88" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU88" s="34">
-        <f>AU85/(AU86+AU87)</f>
-        <v>2.5146354443853113E-2</v>
+      <c r="AN88" s="47"/>
+      <c r="AO88" s="47"/>
+      <c r="AP88" s="47"/>
+      <c r="AQ88" s="47"/>
+      <c r="AR88" s="47"/>
+      <c r="AS88" s="47"/>
+      <c r="AT88" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU88" s="48">
+        <f>AM61</f>
+        <v>7413000000</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14831,12 +15038,18 @@
         <f t="shared" si="9"/>
         <v>0.39232069705442485</v>
       </c>
-      <c r="AT89" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU89" s="32">
-        <f>AM27</f>
-        <v>888000000</v>
+      <c r="AN89" s="47"/>
+      <c r="AO89" s="47"/>
+      <c r="AP89" s="47"/>
+      <c r="AQ89" s="47"/>
+      <c r="AR89" s="47"/>
+      <c r="AS89" s="47"/>
+      <c r="AT89" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU89" s="49">
+        <f>AU86/(AU87+AU88)</f>
+        <v>2.5146354443853113E-2</v>
       </c>
     </row>
     <row r="90" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14957,12 +15170,18 @@
       <c r="AM90" s="1">
         <v>888000000</v>
       </c>
-      <c r="AT90" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU90" s="32">
-        <f>AM25</f>
-        <v>9571000000</v>
+      <c r="AN90" s="47"/>
+      <c r="AO90" s="47"/>
+      <c r="AP90" s="47"/>
+      <c r="AQ90" s="47"/>
+      <c r="AR90" s="47"/>
+      <c r="AS90" s="47"/>
+      <c r="AT90" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU90" s="48">
+        <f>AM27</f>
+        <v>888000000</v>
       </c>
     </row>
     <row r="91" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15083,12 +15302,18 @@
       <c r="AM91" s="1">
         <v>-1770000000</v>
       </c>
-      <c r="AT91" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU91" s="34">
-        <f>AU89/AU90</f>
-        <v>9.2780273743600455E-2</v>
+      <c r="AN91" s="47"/>
+      <c r="AO91" s="47"/>
+      <c r="AP91" s="47"/>
+      <c r="AQ91" s="47"/>
+      <c r="AR91" s="47"/>
+      <c r="AS91" s="47"/>
+      <c r="AT91" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU91" s="48">
+        <f>AM25</f>
+        <v>9571000000</v>
       </c>
     </row>
     <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15209,15 +15434,21 @@
       <c r="AM92" s="1">
         <v>1615000000</v>
       </c>
-      <c r="AT92" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU92" s="34">
-        <f>AU88*(1-AU91)</f>
-        <v>2.2813268794898818E-2</v>
+      <c r="AN92" s="47"/>
+      <c r="AO92" s="47"/>
+      <c r="AP92" s="47"/>
+      <c r="AQ92" s="47"/>
+      <c r="AR92" s="47"/>
+      <c r="AS92" s="47"/>
+      <c r="AT92" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU92" s="49">
+        <f>AU90/AU91</f>
+        <v>9.2780273743600455E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -15335,12 +15566,21 @@
       <c r="AM93" s="1">
         <v>-12318000000</v>
       </c>
-      <c r="AT93" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU93" s="67"/>
+      <c r="AN93" s="47"/>
+      <c r="AO93" s="47"/>
+      <c r="AP93" s="47"/>
+      <c r="AQ93" s="47"/>
+      <c r="AR93" s="47"/>
+      <c r="AS93" s="47"/>
+      <c r="AT93" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU93" s="49">
+        <f>AU89*(1-AU92)</f>
+        <v>2.2813268794898818E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -15458,13 +15698,16 @@
       <c r="AM94" s="10">
         <v>-11585000000</v>
       </c>
-      <c r="AT94" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU94" s="35">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="AN94" s="47"/>
+      <c r="AO94" s="47"/>
+      <c r="AP94" s="47"/>
+      <c r="AQ94" s="47"/>
+      <c r="AR94" s="47"/>
+      <c r="AS94" s="47"/>
+      <c r="AT94" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU94" s="73"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15584,12 +15827,18 @@
       <c r="AM95" s="1">
         <v>-2032000000</v>
       </c>
-      <c r="AT95" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU95" s="36" cm="1">
-        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.3644000000000001</v>
+      <c r="AN95" s="47"/>
+      <c r="AO95" s="47"/>
+      <c r="AP95" s="47"/>
+      <c r="AQ95" s="47"/>
+      <c r="AR95" s="47"/>
+      <c r="AS95" s="47"/>
+      <c r="AT95" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU95" s="50">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.7160000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15710,11 +15959,18 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU96" s="35">
-        <v>8.4000000000000005E-2</v>
+      <c r="AN96" s="47"/>
+      <c r="AO96" s="47"/>
+      <c r="AP96" s="47"/>
+      <c r="AQ96" s="47"/>
+      <c r="AR96" s="47"/>
+      <c r="AS96" s="47"/>
+      <c r="AT96" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU96" s="51" cm="1">
+        <f t="array" ref="AU96">_FV(A1,"Beta")</f>
+        <v>1.3052999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15835,15 +16091,20 @@
       <c r="AM97" s="1">
         <v>-2432000000</v>
       </c>
-      <c r="AT97" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU97" s="34">
-        <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.10035427200000001</v>
+      <c r="AN97" s="47"/>
+      <c r="AO97" s="47"/>
+      <c r="AP97" s="47"/>
+      <c r="AQ97" s="47"/>
+      <c r="AR97" s="47"/>
+      <c r="AS97" s="47"/>
+      <c r="AT97" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU97" s="50">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -15961,12 +16222,21 @@
       <c r="AM98" s="1">
         <v>-461000000</v>
       </c>
-      <c r="AT98" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU98" s="67"/>
+      <c r="AN98" s="47"/>
+      <c r="AO98" s="47"/>
+      <c r="AP98" s="47"/>
+      <c r="AQ98" s="47"/>
+      <c r="AR98" s="47"/>
+      <c r="AS98" s="47"/>
+      <c r="AT98" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU98" s="49">
+        <f>(AU95)+((AU96)*(AU97-AU95))</f>
+        <v>9.5247252000000004E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -16084,13 +16354,16 @@
       <c r="AM99" s="1">
         <v>1945000000</v>
       </c>
-      <c r="AT99" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU99" s="32">
-        <f>AU86+AU87</f>
-        <v>7516000000</v>
-      </c>
+      <c r="AN99" s="47"/>
+      <c r="AO99" s="47"/>
+      <c r="AP99" s="47"/>
+      <c r="AQ99" s="47"/>
+      <c r="AR99" s="47"/>
+      <c r="AS99" s="47"/>
+      <c r="AT99" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU99" s="73"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -16210,12 +16483,18 @@
       <c r="AM100" s="10">
         <v>-2980000000</v>
       </c>
-      <c r="AT100" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU100" s="34">
-        <f>AU99/AU103</f>
-        <v>9.3926984953468115E-2</v>
+      <c r="AN100" s="47"/>
+      <c r="AO100" s="47"/>
+      <c r="AP100" s="47"/>
+      <c r="AQ100" s="47"/>
+      <c r="AR100" s="47"/>
+      <c r="AS100" s="47"/>
+      <c r="AT100" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU100" s="48">
+        <f>AU87+AU88</f>
+        <v>7516000000</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16336,12 +16615,18 @@
       <c r="AM101" s="1">
         <v>-106000000</v>
       </c>
-      <c r="AT101" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU101" s="29" cm="1">
-        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>72503602500</v>
+      <c r="AN101" s="47"/>
+      <c r="AO101" s="47"/>
+      <c r="AP101" s="47"/>
+      <c r="AQ101" s="47"/>
+      <c r="AR101" s="47"/>
+      <c r="AS101" s="47"/>
+      <c r="AT101" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU101" s="49">
+        <f>AU100/AU104</f>
+        <v>8.9323808312723657E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16462,12 +16747,18 @@
       <c r="AM102" s="10">
         <v>510000000</v>
       </c>
-      <c r="AT102" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU102" s="34">
-        <f>AU101/AU103</f>
-        <v>0.90607301504653193</v>
+      <c r="AN102" s="47"/>
+      <c r="AO102" s="47"/>
+      <c r="AP102" s="47"/>
+      <c r="AQ102" s="47"/>
+      <c r="AR102" s="47"/>
+      <c r="AS102" s="47"/>
+      <c r="AT102" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU102" s="52" cm="1">
+        <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
+        <v>76627300000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16588,15 +16879,21 @@
       <c r="AM103" s="1">
         <v>7829000000</v>
       </c>
-      <c r="AT103" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU103" s="37">
-        <f>AU99+AU101</f>
-        <v>80019602500</v>
+      <c r="AN103" s="47"/>
+      <c r="AO103" s="47"/>
+      <c r="AP103" s="47"/>
+      <c r="AQ103" s="47"/>
+      <c r="AR103" s="47"/>
+      <c r="AS103" s="47"/>
+      <c r="AT103" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU103" s="49">
+        <f>AU102/AU104</f>
+        <v>0.91067619168727632</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16714,17 +17011,28 @@
       <c r="AM104" s="11">
         <v>8339000000</v>
       </c>
-      <c r="AT104" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU104" s="67"/>
+      <c r="AN104" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO104" s="71"/>
+      <c r="AP104" s="71"/>
+      <c r="AQ104" s="71"/>
+      <c r="AR104" s="71"/>
+      <c r="AS104" s="47"/>
+      <c r="AT104" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU104" s="53">
+        <f>AU100+AU102</f>
+        <v>84143300000</v>
+      </c>
     </row>
-    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B105" s="1" t="e">
-        <f t="shared" ref="B105:AL105" si="10">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:AM105" si="10">(B22*(1-$AU$92))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="1" t="e">
@@ -16872,221 +17180,224 @@
         <v>1464061540.0689583</v>
       </c>
       <c r="AM105" s="1">
-        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <f t="shared" si="10"/>
         <v>2605845784.1395893</v>
       </c>
-      <c r="AN105" s="27">
-        <f>AM105*(1+$AU$106)</f>
-        <v>2845730008.7438455</v>
-      </c>
-      <c r="AO105" s="27">
-        <f t="shared" ref="AO105:AR105" si="11">AN105*(1+$AU$106)</f>
-        <v>3107697060.1846809</v>
-      </c>
-      <c r="AP105" s="27">
-        <f t="shared" si="11"/>
-        <v>3393779799.2802629</v>
-      </c>
-      <c r="AQ105" s="27">
-        <f t="shared" si="11"/>
-        <v>3706198224.2626691</v>
-      </c>
-      <c r="AR105" s="27">
-        <f t="shared" si="11"/>
-        <v>4047376697.9345002</v>
-      </c>
-      <c r="AS105" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT105" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU105" s="39">
-        <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.3071079358677644E-2</v>
-      </c>
+      <c r="AN105" s="54">
+        <f>AM105*(1+$AU$107)</f>
+        <v>2818031922.1909041</v>
+      </c>
+      <c r="AO105" s="54">
+        <f>AN105*(1+$AU$107)</f>
+        <v>3047495735.4811616</v>
+      </c>
+      <c r="AP105" s="54">
+        <f>AO105*(1+$AU$107)</f>
+        <v>3295644092.8303699</v>
+      </c>
+      <c r="AQ105" s="54">
+        <f>AP105*(1+$AU$107)</f>
+        <v>3563998420.1299801</v>
+      </c>
+      <c r="AR105" s="54">
+        <f>AQ105*(1+$AU$107)</f>
+        <v>3854204028.3786139</v>
+      </c>
+      <c r="AS105" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT105" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU105" s="73"/>
     </row>
-    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="11">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="11"/>
+        <v>-1.1557377049180328</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="11"/>
+        <v>2.0175438596491229</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="11"/>
+        <v>0.66860465116279078</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="11"/>
+        <v>2.029616724738676</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="11"/>
+        <v>0.762507188039103</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="11"/>
+        <v>7.5040783034256986E-3</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="11"/>
+        <v>-2.1832901554404147</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="11"/>
+        <v>-1.2372742200328406</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="11"/>
+        <v>-6.973471741637832</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="11"/>
+        <v>-1.0849584861942461</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="11"/>
+        <v>19.002272727272729</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="11"/>
+        <v>-1.7947960459038745</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.37927090779127948</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="11"/>
+        <v>0.23744818056195305</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="11"/>
+        <v>-1.1453564116880699</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="11"/>
+        <v>1.2151088348271446</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="11"/>
+        <v>2.7803468208092488</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="11"/>
+        <v>-5.0764525993883796</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.43323330832708173</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="11"/>
+        <v>-1.4751819986763732</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="11"/>
+        <v>2.4540389972144845</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="11"/>
+        <v>-1.0266129032258065</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="11"/>
+        <v>-7.2878787878787881</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="11"/>
+        <v>0.36626506024096384</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="11"/>
+        <v>4.3633156966490301</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.60966787241039133</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="11"/>
+        <v>-3.2316764953664703</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="11"/>
+        <v>-2.290675726689317</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="11"/>
+        <v>1.4922491956712487</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.59992958572937449</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.97565268407157524</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="11"/>
+        <v>28.373493975903614</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="11"/>
+        <v>0.27727645611156682</v>
+      </c>
+      <c r="AN106" s="56">
+        <f>(AN107/AM107)-1</f>
+        <v>-3.21868978805395</v>
+      </c>
+      <c r="AO106" s="56">
+        <f>(AO107/AN107)-1</f>
+        <v>-0.55362570560138957</v>
+      </c>
+      <c r="AP106" s="56">
+        <f t="shared" ref="AP106:AR106" si="12">(AP107/AO107)-1</f>
+        <v>-1.5405317769130997</v>
+      </c>
+      <c r="AQ106" s="56">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E106" s="15" t="e">
+        <v>1.9508098380323937</v>
+      </c>
+      <c r="AR106" s="56">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F106" s="15" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G106" s="15">
-        <f t="shared" si="12"/>
-        <v>-1.1557377049180328</v>
-      </c>
-      <c r="H106" s="15">
-        <f t="shared" si="12"/>
-        <v>2.0175438596491229</v>
-      </c>
-      <c r="I106" s="15">
-        <f t="shared" si="12"/>
-        <v>0.66860465116279078</v>
-      </c>
-      <c r="J106" s="15">
-        <f t="shared" si="12"/>
-        <v>2.029616724738676</v>
-      </c>
-      <c r="K106" s="15">
-        <f t="shared" si="12"/>
-        <v>0.762507188039103</v>
-      </c>
-      <c r="L106" s="15">
-        <f t="shared" si="12"/>
-        <v>7.5040783034256986E-3</v>
-      </c>
-      <c r="M106" s="15">
-        <f t="shared" si="12"/>
-        <v>-2.1832901554404147</v>
-      </c>
-      <c r="N106" s="15">
-        <f t="shared" si="12"/>
-        <v>-1.2372742200328406</v>
-      </c>
-      <c r="O106" s="15">
-        <f t="shared" si="12"/>
-        <v>-6.973471741637832</v>
-      </c>
-      <c r="P106" s="15">
-        <f t="shared" si="12"/>
-        <v>-1.0849584861942461</v>
-      </c>
-      <c r="Q106" s="15">
-        <f t="shared" si="12"/>
-        <v>19.002272727272729</v>
-      </c>
-      <c r="R106" s="15">
-        <f t="shared" si="12"/>
-        <v>-1.7947960459038745</v>
-      </c>
-      <c r="S106" s="15">
-        <f t="shared" si="12"/>
-        <v>-0.37927090779127948</v>
-      </c>
-      <c r="T106" s="15">
-        <f t="shared" si="12"/>
-        <v>0.23744818056195305</v>
-      </c>
-      <c r="U106" s="15">
-        <f t="shared" si="12"/>
-        <v>-1.1453564116880699</v>
-      </c>
-      <c r="V106" s="15">
-        <f t="shared" si="12"/>
-        <v>1.2151088348271446</v>
-      </c>
-      <c r="W106" s="15">
-        <f t="shared" si="12"/>
-        <v>2.7803468208092488</v>
-      </c>
-      <c r="X106" s="15">
-        <f t="shared" si="12"/>
-        <v>-5.0764525993883796</v>
-      </c>
-      <c r="Y106" s="15">
-        <f t="shared" si="12"/>
-        <v>-0.43323330832708173</v>
-      </c>
-      <c r="Z106" s="15">
-        <f t="shared" si="12"/>
-        <v>-1.4751819986763732</v>
-      </c>
-      <c r="AA106" s="15">
-        <f t="shared" si="12"/>
-        <v>2.4540389972144845</v>
-      </c>
-      <c r="AB106" s="15">
-        <f t="shared" si="12"/>
-        <v>-1.0266129032258065</v>
-      </c>
-      <c r="AC106" s="15">
-        <f t="shared" si="12"/>
-        <v>-7.2878787878787881</v>
-      </c>
-      <c r="AD106" s="15">
-        <f t="shared" si="12"/>
-        <v>0.36626506024096384</v>
-      </c>
-      <c r="AE106" s="15">
-        <f t="shared" si="12"/>
-        <v>4.3633156966490301</v>
-      </c>
-      <c r="AF106" s="15">
-        <f t="shared" si="12"/>
-        <v>-0.60966787241039133</v>
-      </c>
-      <c r="AG106" s="15">
-        <f t="shared" si="12"/>
-        <v>-3.2316764953664703</v>
-      </c>
-      <c r="AH106" s="15">
-        <f t="shared" si="12"/>
-        <v>-2.290675726689317</v>
-      </c>
-      <c r="AI106" s="15">
-        <f t="shared" si="12"/>
-        <v>1.4922491956712487</v>
-      </c>
-      <c r="AJ106" s="15">
-        <f t="shared" si="12"/>
-        <v>-0.59992958572937449</v>
-      </c>
-      <c r="AK106" s="15">
-        <f t="shared" si="12"/>
-        <v>-0.97565268407157524</v>
-      </c>
-      <c r="AL106" s="15">
-        <f t="shared" si="12"/>
-        <v>28.373493975903614</v>
-      </c>
-      <c r="AM106" s="15">
-        <f t="shared" si="12"/>
-        <v>0.27727645611156682</v>
-      </c>
-      <c r="AN106" s="52">
-        <v>-1057000000</v>
-      </c>
-      <c r="AO106" s="52">
-        <v>-404000000</v>
-      </c>
-      <c r="AP106" s="52">
-        <v>2620000000</v>
-      </c>
-      <c r="AQ106" s="52">
-        <v>2884000000</v>
-      </c>
-      <c r="AR106" s="52">
-        <v>2860000000</v>
-      </c>
-      <c r="AS106" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT106" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU106" s="41">
-        <f>(SUM(AN4:AR4)/5)</f>
-        <v>9.2056186158177372E-2</v>
+        <v>-0.27932506607033947</v>
+      </c>
+      <c r="AS106" s="57">
+        <f>SUM(AN106:AR106)/5</f>
+        <v>-0.72827249972127706</v>
+      </c>
+      <c r="AT106" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU106" s="55">
+        <f>(AU101*AU93)+(AU103*AU98)</f>
+        <v>8.8777172768860491E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="32" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -17203,151 +17514,239 @@
       <c r="AM107" s="1">
         <v>3114000000</v>
       </c>
-      <c r="AN107" s="28"/>
-      <c r="AO107" s="28"/>
-      <c r="AP107" s="28"/>
-      <c r="AQ107" s="28"/>
-      <c r="AR107" s="29">
-        <f>AR105*(1+AU107)/(AU108-AU107)</f>
-        <v>60944547294.797775</v>
-      </c>
-      <c r="AS107" s="30" t="s">
+      <c r="AN107" s="45">
+        <v>-6909000000</v>
+      </c>
+      <c r="AO107" s="45">
+        <v>-3084000000</v>
+      </c>
+      <c r="AP107" s="45">
+        <v>1667000000</v>
+      </c>
+      <c r="AQ107" s="45">
+        <v>4919000000</v>
+      </c>
+      <c r="AR107" s="45">
+        <v>3545000000</v>
+      </c>
+      <c r="AS107" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT107" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU107" s="30">
+        <f>(SUM(AN4:AR4)/5)</f>
+        <v>8.1426974436775976E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN108" s="46"/>
+      <c r="AO108" s="46"/>
+      <c r="AP108" s="46"/>
+      <c r="AQ108" s="46"/>
+      <c r="AR108" s="60">
+        <f>AR107*(1+AU108)/(AU109-AU108)</f>
+        <v>56973754750.291061</v>
+      </c>
+      <c r="AS108" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="AT107" s="42" t="s">
+      <c r="AT108" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="AU107" s="43">
+      <c r="AU108" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="29">
-        <f t="shared" ref="AN108:AQ108" si="13">AN107+AN105</f>
-        <v>2845730008.7438455</v>
-      </c>
-      <c r="AO108" s="29">
+    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN109" s="60">
+        <f t="shared" ref="AN109:AQ109" si="13">AN108+AN107</f>
+        <v>-6909000000</v>
+      </c>
+      <c r="AO109" s="60">
         <f t="shared" si="13"/>
-        <v>3107697060.1846809</v>
-      </c>
-      <c r="AP108" s="29">
+        <v>-3084000000</v>
+      </c>
+      <c r="AP109" s="60">
         <f t="shared" si="13"/>
-        <v>3393779799.2802629</v>
-      </c>
-      <c r="AQ108" s="29">
+        <v>1667000000</v>
+      </c>
+      <c r="AQ109" s="60">
         <f t="shared" si="13"/>
-        <v>3706198224.2626691</v>
-      </c>
-      <c r="AR108" s="29">
-        <f>AR107+AR105</f>
-        <v>64991923992.732277</v>
-      </c>
-      <c r="AS108" s="30" t="s">
+        <v>4919000000</v>
+      </c>
+      <c r="AR109" s="60">
+        <f>AR108+AR107</f>
+        <v>60518754750.291061</v>
+      </c>
+      <c r="AS109" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="AT108" s="44" t="s">
+      <c r="AT109" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="AU108" s="41">
-        <f>AU105</f>
-        <v>9.3071079358677644E-2</v>
+      <c r="AU109" s="30">
+        <f>AU106</f>
+        <v>8.8777172768860491E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64" t="s">
+    <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN110" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="AO109" s="64"/>
+      <c r="AO110" s="72"/>
+      <c r="AP110" s="47"/>
+      <c r="AQ110" s="47"/>
+      <c r="AR110" s="47"/>
+      <c r="AS110" s="47"/>
+      <c r="AT110" s="47"/>
+      <c r="AU110" s="47"/>
     </row>
-    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="45" t="s">
+    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN111" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="AO110" s="29">
-        <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>52049438057.492935</v>
-      </c>
+      <c r="AO111" s="52">
+        <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
+        <v>35399184399.568123</v>
+      </c>
+      <c r="AP111" s="47"/>
+      <c r="AQ111" s="47"/>
+      <c r="AR111" s="47"/>
+      <c r="AS111" s="47"/>
+      <c r="AT111" s="47"/>
+      <c r="AU111" s="47"/>
     </row>
-    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="45" t="s">
+    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN112" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="AO111" s="29">
+      <c r="AO112" s="52">
         <f>AM40</f>
         <v>9331000000</v>
       </c>
+      <c r="AP112" s="47"/>
+      <c r="AQ112" s="47"/>
+      <c r="AR112" s="47"/>
+      <c r="AS112" s="47"/>
+      <c r="AT112" s="47"/>
+      <c r="AU112" s="47"/>
     </row>
-    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="45" t="s">
+    <row r="113" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN113" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="AO112" s="29">
-        <f>AU99</f>
+      <c r="AO113" s="52">
+        <f>AU100</f>
         <v>7516000000</v>
       </c>
+      <c r="AP113" s="47"/>
+      <c r="AQ113" s="47"/>
+      <c r="AR113" s="47"/>
+      <c r="AS113" s="47"/>
+      <c r="AT113" s="47"/>
+      <c r="AU113" s="47"/>
     </row>
-    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="45" t="s">
+    <row r="114" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN114" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AO113" s="29">
-        <f>AO110+AO111-AO112</f>
-        <v>53864438057.492935</v>
-      </c>
+      <c r="AO114" s="52">
+        <f>AO111+AO112-AO113</f>
+        <v>37214184399.568123</v>
+      </c>
+      <c r="AP114" s="47"/>
+      <c r="AQ114" s="47"/>
+      <c r="AR114" s="47"/>
+      <c r="AS114" s="47"/>
+      <c r="AT114" s="47"/>
+      <c r="AU114" s="47"/>
     </row>
-    <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="45" t="s">
+    <row r="115" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN115" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="AO114" s="45">
+      <c r="AO115" s="63">
         <f>AM34*(1+(AS16*5))</f>
         <v>1095864951.3932514</v>
       </c>
+      <c r="AP115" s="47"/>
+      <c r="AQ115" s="47"/>
+      <c r="AR115" s="47"/>
+      <c r="AS115" s="47"/>
+      <c r="AT115" s="47"/>
+      <c r="AU115" s="47"/>
     </row>
-    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="46" t="s">
+    <row r="116" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN116" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="AO115" s="47">
-        <f>AO113/AO114</f>
-        <v>49.152441629793181</v>
-      </c>
+      <c r="AO116" s="65">
+        <f>AO114/AO115</f>
+        <v>33.958732188902538</v>
+      </c>
+      <c r="AP116" s="47"/>
+      <c r="AQ116" s="47"/>
+      <c r="AR116" s="47"/>
+      <c r="AS116" s="47"/>
+      <c r="AT116" s="47"/>
+      <c r="AU116" s="47"/>
     </row>
-    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="45" t="s">
+    <row r="117" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN117" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="AO116" s="48" cm="1">
-        <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>66.25</v>
-      </c>
+      <c r="AO117" s="66" cm="1">
+        <f t="array" ref="AO117">_FV(A1,"Price")</f>
+        <v>69.959999999999994</v>
+      </c>
+      <c r="AP117" s="47"/>
+      <c r="AQ117" s="47"/>
+      <c r="AR117" s="47"/>
+      <c r="AS117" s="47"/>
+      <c r="AT117" s="47"/>
+      <c r="AU117" s="47"/>
     </row>
-    <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="46" t="s">
+    <row r="118" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN118" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="AO117" s="49">
-        <f>AO115/AO116-1</f>
-        <v>-0.2580763527578388</v>
-      </c>
+      <c r="AO118" s="67">
+        <f>AO116/AO117-1</f>
+        <v>-0.51459788180528099</v>
+      </c>
+      <c r="AP118" s="47"/>
+      <c r="AQ118" s="47"/>
+      <c r="AR118" s="47"/>
+      <c r="AS118" s="47"/>
+      <c r="AT118" s="47"/>
+      <c r="AU118" s="47"/>
     </row>
-    <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="46" t="s">
+    <row r="119" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN119" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="AO118" s="50" t="str">
-        <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
+      <c r="AO119" s="68" t="str">
+        <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AP119" s="47"/>
+      <c r="AQ119" s="47"/>
+      <c r="AR119" s="47"/>
+      <c r="AS119" s="47"/>
+      <c r="AT119" s="47"/>
+      <c r="AU119" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AN109:AO109"/>
-    <mergeCell ref="AT83:AU83"/>
+  <mergeCells count="7">
     <mergeCell ref="AT84:AU84"/>
-    <mergeCell ref="AT93:AU93"/>
-    <mergeCell ref="AT98:AU98"/>
-    <mergeCell ref="AT104:AU104"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AN110:AO110"/>
+    <mergeCell ref="AT105:AU105"/>
+    <mergeCell ref="AT99:AU99"/>
+    <mergeCell ref="AT94:AU94"/>
+    <mergeCell ref="AT85:AU85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MU" display="ROIC.AI | MU" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17428,7 +17827,7 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/723125/000072312522000048/0000723125-22-000048-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/723125/000072312522000048/0000723125-22-000048-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:MU/explorer/revenue_proj" xr:uid="{66E3942F-D358-E544-BF82-3F24C4AAA9FB}"/>
-    <hyperlink ref="AS106" r:id="rId79" xr:uid="{8113B498-A706-2E42-9D3B-5D22C713A3FE}"/>
+    <hyperlink ref="AS107" r:id="rId79" xr:uid="{43C9D453-A189-5D4E-B29B-88AA0894B339}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId80"/>

--- a/Technology/Hardware/Micron Technology.xlsx
+++ b/Technology/Hardware/Micron Technology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65FA6DD-6D22-3B46-A07C-0F27AB10308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3D0882-4FEC-5B47-90F2-CF3974C38EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -555,9 +555,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
@@ -890,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1009,9 +1006,6 @@
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1054,13 +1048,20 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2909,15 +2910,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
-      <sheetName val="ROIC"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Value"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2930,19 +2934,22 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.7160000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3070,37 +3077,36 @@
     <v>Powered by Refinitiv</v>
     <v>74.769900000000007</v>
     <v>48.43</v>
-    <v>1.3052999999999999</v>
-    <v>1.0249999999999999</v>
-    <v>1.4869E-2</v>
-    <v>0.02</v>
-    <v>2.8590000000000001E-4</v>
+    <v>1.3022</v>
+    <v>1.1200000000000001</v>
+    <v>1.7356E-2</v>
+    <v>-0.1</v>
+    <v>-1.5229999999999998E-3</v>
     <v>USD</v>
-    <v>Micron Technology, Inc. is a provider of memory and storage solutions. The Company's product portfolio includes dynamic random-access memory (DRAM), negative-AND (NAND), three-dimensional (3D) XPoint memory, and NOR, solid-state drives, graphics and high bandwidth memory (HBM), managed NAND and multichip packages. Its brands include Micron and Crucial. The Company's segments include Compute and Networking Business Unit (CNBU) includes memory products sold into client, cloud server, enterprise, graphics, and networking markets; Mobile Business Unit (MBU) includes memory and storage products sold into smartphone and other mobile-device markets; Storage Business Unit (SBU) includes solid state drives (SSDs) and component-level solutions sold into enterprise and cloud, client, and consumer storage markets and other discrete storage products; Embedded Business Unit (EBU) includes memory and storage products sold into automotive, industrial, and consumer markets.</v>
-    <v>48000</v>
+    <v>Micron Technology, Inc. is a provider of memory and storage solutions. The Company offers a portfolio of high-performance dynamic random-access memory (DRAM), NAND, and NOR memory and storage products through its Micron and Crucial brands. The Company’s segments include Compute and Networking Business Unit (CNBU), Mobile Business Unit (MBU), Embedded Business Unit (EBU), and Storage Business Unit (SBU). The CNBU segment includes memory products and solutions sold into client, cloud server, enterprise, graphics, and networking markets. The MBU segment includes memory and storage products sold into smartphone and other mobile-device markets. The EBU segment includes memory and storage products and solutions sold into automotive, industrial, and consumer markets. The SBU segment includes SSDs and component-level solutions sold into enterprise and cloud, client, and consumer storage markets. It sells its products into various markets through its business units in numerous forms.</v>
+    <v>43000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>PO BOX 6, 8000 S FEDERAL WAY, BOISE, ID, 83716-9632 US</v>
-    <v>70.325000000000003</v>
+    <v>66.27</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45205.995257568749</v>
+    <v>45226.999847337502</v>
     <v>0</v>
-    <v>68.000100000000003</v>
-    <v>76627300000</v>
+    <v>64.88</v>
+    <v>72085960000</v>
     <v>MICRON TECHNOLOGY, INC.</v>
     <v>MICRON TECHNOLOGY, INC.</v>
-    <v>68.709999999999994</v>
-    <v>46.887099999999997</v>
-    <v>68.935000000000002</v>
-    <v>69.959999999999994</v>
-    <v>69.98</v>
-    <v>1095302000</v>
+    <v>64.92</v>
+    <v>64.53</v>
+    <v>65.650000000000006</v>
+    <v>65.55</v>
+    <v>1098034000</v>
     <v>MU</v>
     <v>MICRON TECHNOLOGY, INC. (XNAS:MU)</v>
-    <v>15113360</v>
-    <v>15075529</v>
+    <v>9980252</v>
+    <v>14618781</v>
     <v>1984</v>
   </rv>
   <rv s="2">
@@ -3151,7 +3157,6 @@
     <k n="Name" t="s"/>
     <k n="Official name" t="s"/>
     <k n="Open"/>
-    <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Price (Extended hours)"/>
@@ -3171,7 +3176,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3203,7 +3208,6 @@
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
       <v t="s">Beta</v>
-      <v t="s">P/E</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -3238,7 +3242,6 @@
     </spb>
     <spb s="3">
       <v>1</v>
-      <v>2</v>
       <v>2</v>
       <v>1</v>
       <v>3</v>
@@ -3295,7 +3298,6 @@
   </s>
   <s>
     <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
     <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
@@ -3688,10 +3690,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP16" sqref="AP16"/>
+      <selection pane="bottomRight" activeCell="AQ90" sqref="AQ90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5910,15 +5912,15 @@
       </c>
       <c r="AT16" s="33">
         <f>AU102/AM3</f>
-        <v>2.4912965732492358</v>
+        <v>2.3436491319331556</v>
       </c>
       <c r="AU16" s="33">
         <f>AU102/AM28</f>
-        <v>8.820916311730171</v>
+        <v>8.2981420513410846</v>
       </c>
       <c r="AV16" s="35">
         <f>AU102/AM107</f>
-        <v>24.607353885677586</v>
+        <v>23.148991650610149</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6162,13 +6164,13 @@
         <v>123</v>
       </c>
       <c r="AT18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU18" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="AU18" s="19" t="s">
+      <c r="AV18" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="AV18" s="19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6310,14 +6312,14 @@
       </c>
       <c r="AT19" s="33">
         <f>AU102/AN3</f>
-        <v>4.9661244329228778</v>
+        <v>4.6718055735580037</v>
       </c>
       <c r="AU19" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV19" s="35">
-        <f>AU102/AN105</f>
-        <v>27.191778558855152</v>
+        <f>AU102/AN107</f>
+        <v>-10.433631495151252</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6633,13 +6635,13 @@
         <v>0.45990218608214012</v>
       </c>
       <c r="AT21" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AU21" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6766,11 +6768,11 @@
       </c>
       <c r="AU22" s="43">
         <f>(-1*AM98)/AU102</f>
-        <v>6.0161326315816945E-3</v>
+        <v>6.3951426879797395E-3</v>
       </c>
       <c r="AV22" s="36">
         <f>AN107/AU102</f>
-        <v>-9.0163688398260153E-2</v>
+        <v>-9.5843906358464251E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -8188,7 +8190,7 @@
       </c>
       <c r="AN33" s="1" cm="1">
         <f t="array" ref="AN33">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>1095302000</v>
+        <v>1098034000</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -8311,7 +8313,7 @@
       </c>
       <c r="AN34" s="1" cm="1">
         <f t="array" ref="AN34">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>1095302000</v>
+        <v>1098034000</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -8469,7 +8471,7 @@
       </c>
       <c r="AN35" s="22">
         <f t="shared" si="7"/>
-        <v>-2.3795008912655971E-2</v>
+        <v>-2.1360071301247771E-2</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14352,10 +14354,10 @@
       <c r="AQ84" s="47"/>
       <c r="AR84" s="47"/>
       <c r="AS84" s="47"/>
-      <c r="AT84" s="69" t="s">
+      <c r="AT84" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="AU84" s="70"/>
+      <c r="AU84" s="72"/>
     </row>
     <row r="85" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14481,10 +14483,10 @@
       <c r="AQ85" s="47"/>
       <c r="AR85" s="47"/>
       <c r="AS85" s="47"/>
-      <c r="AT85" s="73" t="s">
+      <c r="AT85" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="AU85" s="73"/>
+      <c r="AU85" s="75"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -15704,10 +15706,10 @@
       <c r="AQ94" s="47"/>
       <c r="AR94" s="47"/>
       <c r="AS94" s="47"/>
-      <c r="AT94" s="73" t="s">
+      <c r="AT94" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="AU94" s="73"/>
+      <c r="AU94" s="75"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15836,9 +15838,9 @@
       <c r="AT95" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="AU95" s="50">
-        <f>[1]Treasuries!$C$8</f>
-        <v>4.7160000000000001E-2</v>
+      <c r="AU95" s="68">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15970,7 +15972,7 @@
       </c>
       <c r="AU96" s="51" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>1.3052999999999999</v>
+        <v>1.3022</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16233,7 +16235,7 @@
       </c>
       <c r="AU98" s="49">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>9.5247252000000004E-2</v>
+        <v>9.4743210000000008E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16360,10 +16362,10 @@
       <c r="AQ99" s="47"/>
       <c r="AR99" s="47"/>
       <c r="AS99" s="47"/>
-      <c r="AT99" s="73" t="s">
+      <c r="AT99" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="AU99" s="73"/>
+      <c r="AU99" s="75"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -16626,7 +16628,7 @@
       </c>
       <c r="AU101" s="49">
         <f>AU100/AU104</f>
-        <v>8.9323808312723657E-2</v>
+        <v>9.4419785643469076E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16758,7 +16760,7 @@
       </c>
       <c r="AU102" s="52" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>76627300000</v>
+        <v>72085960000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16890,7 +16892,7 @@
       </c>
       <c r="AU103" s="49">
         <f>AU102/AU104</f>
-        <v>0.91067619168727632</v>
+        <v>0.90558021435653091</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17011,20 +17013,20 @@
       <c r="AM104" s="11">
         <v>8339000000</v>
       </c>
-      <c r="AN104" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO104" s="71"/>
-      <c r="AP104" s="71"/>
-      <c r="AQ104" s="71"/>
-      <c r="AR104" s="71"/>
+      <c r="AN104" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO104" s="73"/>
+      <c r="AP104" s="73"/>
+      <c r="AQ104" s="73"/>
+      <c r="AR104" s="73"/>
       <c r="AS104" s="47"/>
       <c r="AT104" s="28" t="s">
         <v>142</v>
       </c>
       <c r="AU104" s="53">
         <f>AU100+AU102</f>
-        <v>84143300000</v>
+        <v>79601960000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17183,33 +17185,33 @@
         <f t="shared" si="10"/>
         <v>2605845784.1395893</v>
       </c>
-      <c r="AN105" s="54">
-        <f>AM105*(1+$AU$107)</f>
-        <v>2818031922.1909041</v>
-      </c>
-      <c r="AO105" s="54">
-        <f>AN105*(1+$AU$107)</f>
-        <v>3047495735.4811616</v>
-      </c>
-      <c r="AP105" s="54">
-        <f>AO105*(1+$AU$107)</f>
-        <v>3295644092.8303699</v>
-      </c>
-      <c r="AQ105" s="54">
-        <f>AP105*(1+$AU$107)</f>
-        <v>3563998420.1299801</v>
-      </c>
-      <c r="AR105" s="54">
-        <f>AQ105*(1+$AU$107)</f>
-        <v>3854204028.3786139</v>
-      </c>
-      <c r="AS105" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT105" s="73" t="s">
+      <c r="AN105" s="69">
+        <f>AN107/AN3</f>
+        <v>-0.44776409591704469</v>
+      </c>
+      <c r="AO105" s="69">
+        <f>AO107/AO3</f>
+        <v>-0.15259017366780467</v>
+      </c>
+      <c r="AP105" s="69">
+        <f>AP107/AP3</f>
+        <v>5.9086236841172507E-2</v>
+      </c>
+      <c r="AQ105" s="69">
+        <f>AQ107/AQ3</f>
+        <v>0.14761133117272837</v>
+      </c>
+      <c r="AR105" s="69">
+        <f>AR107/AR3</f>
+        <v>0.10444287313652702</v>
+      </c>
+      <c r="AS105" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT105" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="AU105" s="73"/>
+      <c r="AU105" s="75"/>
     </row>
     <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -17364,36 +17366,36 @@
         <f t="shared" si="11"/>
         <v>0.27727645611156682</v>
       </c>
-      <c r="AN106" s="56">
+      <c r="AN106" s="55">
         <f>(AN107/AM107)-1</f>
         <v>-3.21868978805395</v>
       </c>
-      <c r="AO106" s="56">
+      <c r="AO106" s="55">
         <f>(AO107/AN107)-1</f>
         <v>-0.55362570560138957</v>
       </c>
-      <c r="AP106" s="56">
+      <c r="AP106" s="55">
         <f t="shared" ref="AP106:AR106" si="12">(AP107/AO107)-1</f>
         <v>-1.5405317769130997</v>
       </c>
-      <c r="AQ106" s="56">
+      <c r="AQ106" s="55">
         <f t="shared" si="12"/>
         <v>1.9508098380323937</v>
       </c>
-      <c r="AR106" s="56">
+      <c r="AR106" s="55">
         <f t="shared" si="12"/>
         <v>-0.27932506607033947</v>
       </c>
-      <c r="AS106" s="57">
+      <c r="AS106" s="56">
         <f>SUM(AN106:AR106)/5</f>
         <v>-0.72827249972127706</v>
       </c>
       <c r="AT106" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AU106" s="55">
+      <c r="AU106" s="54">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>8.8777172768860491E-2</v>
+        <v>8.795160037006701E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17530,9 +17532,9 @@
         <v>3545000000</v>
       </c>
       <c r="AS107" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT107" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT107" s="57" t="s">
         <v>144</v>
       </c>
       <c r="AU107" s="30">
@@ -17545,14 +17547,14 @@
       <c r="AO108" s="46"/>
       <c r="AP108" s="46"/>
       <c r="AQ108" s="46"/>
-      <c r="AR108" s="60">
+      <c r="AR108" s="59">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>56973754750.291061</v>
-      </c>
-      <c r="AS108" s="61" t="s">
+        <v>57720931297.050232</v>
+      </c>
+      <c r="AS108" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AT108" s="59" t="s">
+      <c r="AT108" s="58" t="s">
         <v>146</v>
       </c>
       <c r="AU108" s="31">
@@ -17560,42 +17562,42 @@
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.2">
-      <c r="AN109" s="60">
+      <c r="AN109" s="59">
         <f t="shared" ref="AN109:AQ109" si="13">AN108+AN107</f>
         <v>-6909000000</v>
       </c>
-      <c r="AO109" s="60">
+      <c r="AO109" s="59">
         <f t="shared" si="13"/>
         <v>-3084000000</v>
       </c>
-      <c r="AP109" s="60">
+      <c r="AP109" s="59">
         <f t="shared" si="13"/>
         <v>1667000000</v>
       </c>
-      <c r="AQ109" s="60">
+      <c r="AQ109" s="59">
         <f t="shared" si="13"/>
         <v>4919000000</v>
       </c>
-      <c r="AR109" s="60">
+      <c r="AR109" s="59">
         <f>AR108+AR107</f>
-        <v>60518754750.291061</v>
-      </c>
-      <c r="AS109" s="61" t="s">
+        <v>61265931297.050232</v>
+      </c>
+      <c r="AS109" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="AT109" s="62" t="s">
+      <c r="AT109" s="61" t="s">
         <v>147</v>
       </c>
       <c r="AU109" s="30">
         <f>AU106</f>
-        <v>8.8777172768860491E-2</v>
+        <v>8.795160037006701E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
-      <c r="AN110" s="72" t="s">
+      <c r="AN110" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="AO110" s="72"/>
+      <c r="AO110" s="74"/>
       <c r="AP110" s="47"/>
       <c r="AQ110" s="47"/>
       <c r="AR110" s="47"/>
@@ -17604,12 +17606,12 @@
       <c r="AU110" s="47"/>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN111" s="63" t="s">
+      <c r="AN111" s="62" t="s">
         <v>149</v>
       </c>
       <c r="AO111" s="52">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>35399184399.568123</v>
+        <v>36044504835.051338</v>
       </c>
       <c r="AP111" s="47"/>
       <c r="AQ111" s="47"/>
@@ -17619,7 +17621,7 @@
       <c r="AU111" s="47"/>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN112" s="63" t="s">
+      <c r="AN112" s="62" t="s">
         <v>150</v>
       </c>
       <c r="AO112" s="52">
@@ -17634,7 +17636,7 @@
       <c r="AU112" s="47"/>
     </row>
     <row r="113" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN113" s="63" t="s">
+      <c r="AN113" s="62" t="s">
         <v>138</v>
       </c>
       <c r="AO113" s="52">
@@ -17649,12 +17651,12 @@
       <c r="AU113" s="47"/>
     </row>
     <row r="114" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN114" s="63" t="s">
+      <c r="AN114" s="62" t="s">
         <v>151</v>
       </c>
       <c r="AO114" s="52">
         <f>AO111+AO112-AO113</f>
-        <v>37214184399.568123</v>
+        <v>37859504835.051338</v>
       </c>
       <c r="AP114" s="47"/>
       <c r="AQ114" s="47"/>
@@ -17664,10 +17666,10 @@
       <c r="AU114" s="47"/>
     </row>
     <row r="115" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN115" s="63" t="s">
+      <c r="AN115" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AO115" s="63">
+      <c r="AO115" s="62">
         <f>AM34*(1+(AS16*5))</f>
         <v>1095864951.3932514</v>
       </c>
@@ -17679,12 +17681,12 @@
       <c r="AU115" s="47"/>
     </row>
     <row r="116" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN116" s="64" t="s">
+      <c r="AN116" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="AO116" s="65">
+      <c r="AO116" s="64">
         <f>AO114/AO115</f>
-        <v>33.958732188902538</v>
+        <v>34.5476007667896</v>
       </c>
       <c r="AP116" s="47"/>
       <c r="AQ116" s="47"/>
@@ -17694,12 +17696,12 @@
       <c r="AU116" s="47"/>
     </row>
     <row r="117" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN117" s="63" t="s">
+      <c r="AN117" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="AO117" s="66" cm="1">
+      <c r="AO117" s="65" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>69.959999999999994</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="AP117" s="47"/>
       <c r="AQ117" s="47"/>
@@ -17709,12 +17711,12 @@
       <c r="AU117" s="47"/>
     </row>
     <row r="118" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN118" s="64" t="s">
+      <c r="AN118" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="AO118" s="67">
+      <c r="AO118" s="66">
         <f>AO116/AO117-1</f>
-        <v>-0.51459788180528099</v>
+        <v>-0.47376084132841434</v>
       </c>
       <c r="AP118" s="47"/>
       <c r="AQ118" s="47"/>
@@ -17724,10 +17726,10 @@
       <c r="AU118" s="47"/>
     </row>
     <row r="119" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN119" s="64" t="s">
+      <c r="AN119" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="AO119" s="68" t="str">
+      <c r="AO119" s="67" t="str">
         <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Micron Technology.xlsx
+++ b/Technology/Hardware/Micron Technology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3D0882-4FEC-5B47-90F2-CF3974C38EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E91968C-C9AA-D64C-80F2-BCB426E03833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2918,10 +2918,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Quality"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2938,7 +2939,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.4160000000000005E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2950,6 +2951,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3075,13 +3077,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>74.769900000000007</v>
+    <v>78.905000000000001</v>
     <v>48.43</v>
-    <v>1.3022</v>
-    <v>1.1200000000000001</v>
-    <v>1.7356E-2</v>
-    <v>-0.1</v>
-    <v>-1.5229999999999998E-3</v>
+    <v>1.3183</v>
+    <v>0.64</v>
+    <v>8.3260000000000001E-3</v>
+    <v>-0.14000000000000001</v>
+    <v>-1.8060000000000001E-3</v>
     <v>USD</v>
     <v>Micron Technology, Inc. is a provider of memory and storage solutions. The Company offers a portfolio of high-performance dynamic random-access memory (DRAM), NAND, and NOR memory and storage products through its Micron and Crucial brands. The Company’s segments include Compute and Networking Business Unit (CNBU), Mobile Business Unit (MBU), Embedded Business Unit (EBU), and Storage Business Unit (SBU). The CNBU segment includes memory products and solutions sold into client, cloud server, enterprise, graphics, and networking markets. The MBU segment includes memory and storage products sold into smartphone and other mobile-device markets. The EBU segment includes memory and storage products and solutions sold into automotive, industrial, and consumer markets. The SBU segment includes SSDs and component-level solutions sold into enterprise and cloud, client, and consumer storage markets. It sells its products into various markets through its business units in numerous forms.</v>
     <v>43000</v>
@@ -3089,24 +3091,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>PO BOX 6, 8000 S FEDERAL WAY, BOISE, ID, 83716-9632 US</v>
-    <v>66.27</v>
+    <v>78.289900000000003</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45226.999847337502</v>
+    <v>45257.978405578127</v>
     <v>0</v>
-    <v>64.88</v>
-    <v>72085960000</v>
+    <v>76.66</v>
+    <v>84405910000</v>
     <v>MICRON TECHNOLOGY, INC.</v>
     <v>MICRON TECHNOLOGY, INC.</v>
-    <v>64.92</v>
-    <v>64.53</v>
-    <v>65.650000000000006</v>
-    <v>65.55</v>
+    <v>76.87</v>
+    <v>76.87</v>
+    <v>77.510000000000005</v>
+    <v>77.37</v>
     <v>1098034000</v>
     <v>MU</v>
     <v>MICRON TECHNOLOGY, INC. (XNAS:MU)</v>
-    <v>9980252</v>
-    <v>14618781</v>
+    <v>11003986</v>
+    <v>11356416</v>
     <v>1984</v>
   </rv>
   <rv s="2">
@@ -3268,9 +3270,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3690,10 +3692,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ90" sqref="AQ90"/>
+      <selection pane="bottomRight" activeCell="AO90" sqref="AO90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5912,15 +5914,15 @@
       </c>
       <c r="AT16" s="33">
         <f>AU102/AM3</f>
-        <v>2.3436491319331556</v>
+        <v>2.7441937057025814</v>
       </c>
       <c r="AU16" s="33">
         <f>AU102/AM28</f>
-        <v>8.2981420513410846</v>
+        <v>9.7163474156785998</v>
       </c>
       <c r="AV16" s="35">
         <f>AU102/AM107</f>
-        <v>23.148991650610149</v>
+        <v>27.105301862556196</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6312,14 +6314,14 @@
       </c>
       <c r="AT19" s="33">
         <f>AU102/AN3</f>
-        <v>4.6718055735580037</v>
+        <v>5.4702469215813352</v>
       </c>
       <c r="AU19" s="34" t="s">
         <v>165</v>
       </c>
       <c r="AV19" s="35">
         <f>AU102/AN107</f>
-        <v>-10.433631495151252</v>
+        <v>-12.216805615863366</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6768,11 +6770,11 @@
       </c>
       <c r="AU22" s="43">
         <f>(-1*AM98)/AU102</f>
-        <v>6.3951426879797395E-3</v>
+        <v>5.4617028594324737E-3</v>
       </c>
       <c r="AV22" s="36">
         <f>AN107/AU102</f>
-        <v>-9.5843906358464251E-2</v>
+        <v>-8.1854457821733104E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -15840,7 +15842,7 @@
       </c>
       <c r="AU95" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.4160000000000005E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15972,7 +15974,7 @@
       </c>
       <c r="AU96" s="51" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>1.3022</v>
+        <v>1.3183</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16235,7 +16237,7 @@
       </c>
       <c r="AU98" s="49">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>9.4743210000000008E-2</v>
+        <v>9.6681072000000007E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16628,7 +16630,7 @@
       </c>
       <c r="AU101" s="49">
         <f>AU100/AU104</f>
-        <v>9.4419785643469076E-2</v>
+        <v>8.1765054707849311E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16760,7 +16762,7 @@
       </c>
       <c r="AU102" s="52" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>72085960000</v>
+        <v>84405910000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16892,7 +16894,7 @@
       </c>
       <c r="AU103" s="49">
         <f>AU102/AU104</f>
-        <v>0.90558021435653091</v>
+        <v>0.91823494529215066</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17026,7 +17028,7 @@
       </c>
       <c r="AU104" s="53">
         <f>AU100+AU102</f>
-        <v>79601960000</v>
+        <v>91921910000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17395,7 +17397,7 @@
       </c>
       <c r="AU106" s="54">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>8.795160037006701E-2</v>
+        <v>9.0641267029786254E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17549,7 +17551,7 @@
       <c r="AQ108" s="46"/>
       <c r="AR108" s="59">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>57720931297.050232</v>
+        <v>55355802293.565681</v>
       </c>
       <c r="AS108" s="60" t="s">
         <v>145</v>
@@ -17580,7 +17582,7 @@
       </c>
       <c r="AR109" s="59">
         <f>AR108+AR107</f>
-        <v>61265931297.050232</v>
+        <v>58900802293.565681</v>
       </c>
       <c r="AS109" s="60" t="s">
         <v>142</v>
@@ -17590,7 +17592,7 @@
       </c>
       <c r="AU109" s="30">
         <f>AU106</f>
-        <v>8.795160037006701E-2</v>
+        <v>9.0641267029786254E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
@@ -17611,7 +17613,7 @@
       </c>
       <c r="AO111" s="52">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>36044504835.051338</v>
+        <v>34003091032.860836</v>
       </c>
       <c r="AP111" s="47"/>
       <c r="AQ111" s="47"/>
@@ -17656,7 +17658,7 @@
       </c>
       <c r="AO114" s="52">
         <f>AO111+AO112-AO113</f>
-        <v>37859504835.051338</v>
+        <v>35818091032.86084</v>
       </c>
       <c r="AP114" s="47"/>
       <c r="AQ114" s="47"/>
@@ -17686,7 +17688,7 @@
       </c>
       <c r="AO116" s="64">
         <f>AO114/AO115</f>
-        <v>34.5476007667896</v>
+        <v>32.684767395218493</v>
       </c>
       <c r="AP116" s="47"/>
       <c r="AQ116" s="47"/>
@@ -17701,7 +17703,7 @@
       </c>
       <c r="AO117" s="65" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price")</f>
-        <v>65.650000000000006</v>
+        <v>77.510000000000005</v>
       </c>
       <c r="AP117" s="47"/>
       <c r="AQ117" s="47"/>
@@ -17716,7 +17718,7 @@
       </c>
       <c r="AO118" s="66">
         <f>AO116/AO117-1</f>
-        <v>-0.47376084132841434</v>
+        <v>-0.57831547677437123</v>
       </c>
       <c r="AP118" s="47"/>
       <c r="AQ118" s="47"/>
